--- a/supplementary-material/metabolite-VIP-lists.xlsx
+++ b/supplementary-material/metabolite-VIP-lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaaminivenkataraman/Documents/green-crab-metabolomics/supplementary-material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yvenkataraman/Documents/green-crab-metabolomics/supplementary-material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75913603-865D-B848-A40B-347054CB3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782CBD5-FE9D-A342-8656-F9DF99D8450C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16100" xr2:uid="{69B08B4A-7FBE-344C-8B12-05655117E293}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="44800" windowHeight="22720" activeTab="6" xr2:uid="{69B08B4A-7FBE-344C-8B12-05655117E293}"/>
   </bookViews>
   <sheets>
     <sheet name="table-of-contents" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="5-day4v22_VIP_metabolites" sheetId="4" r:id="rId4"/>
     <sheet name="30v5-day4_VIP_metabolites" sheetId="5" r:id="rId5"/>
     <sheet name="30v5-day22_VIP_metabolites" sheetId="6" r:id="rId6"/>
+    <sheet name="unique-30v5-day22_VIP" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="179">
   <si>
     <t>tab-name</t>
   </si>
@@ -512,18 +512,91 @@
   </si>
   <si>
     <t>PubChem and KEGG information for metabolites identified as significant VIP between 30ºC and 5ºC at day 22</t>
+  </si>
+  <si>
+    <t>PubChem and KEGG information for metabolites identified as significant VIP between 30ºC and 5ºC at day 22 unique to this comparison</t>
+  </si>
+  <si>
+    <t>unique-30v5-day22_VIP</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>estimate1</t>
+  </si>
+  <si>
+    <t>estimate2</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>conf.low</t>
+  </si>
+  <si>
+    <t>conf.high</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>p.adj</t>
+  </si>
+  <si>
+    <t>Welch Two Sample t-test</t>
+  </si>
+  <si>
+    <t>two.sided</t>
+  </si>
+  <si>
+    <t>1.38604490267001e-05</t>
+  </si>
+  <si>
+    <t>2.15511630892986e-05</t>
+  </si>
+  <si>
+    <t>1.03829829471253e-06</t>
+  </si>
+  <si>
+    <t>2.18042641889632e-05</t>
+  </si>
+  <si>
+    <t>4.03800668041026e-09</t>
+  </si>
+  <si>
+    <t>1.69596280577231e-07</t>
+  </si>
+  <si>
+    <t>1.39079009661393e-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,8 +620,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,22 +959,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43E7C9C-BB4D-6440-9549-C46AEFEEEA79}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -942,339 +1018,1338 @@
         <v>156</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64717CF7-0C56-4D4D-91E8-161CD65AD5F0}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>1.0660331857010199</v>
+      </c>
+      <c r="C2">
+        <v>9.4713863733619092</v>
+      </c>
+      <c r="D2">
+        <v>8.4053531876608893</v>
+      </c>
+      <c r="E2">
+        <v>2.72339267690174</v>
+      </c>
+      <c r="F2">
+        <v>1.5855944499860501E-2</v>
+      </c>
+      <c r="G2">
+        <v>14.792549212891201</v>
+      </c>
+      <c r="H2">
+        <v>0.23068744548280401</v>
+      </c>
+      <c r="I2">
+        <v>1.90137892591923</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2">
+        <v>3.1466851671272202E-2</v>
+      </c>
+      <c r="M2">
         <v>5200225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
+        <v>-0.48783965977799099</v>
+      </c>
+      <c r="C3">
+        <v>7.7910560723616298</v>
+      </c>
+      <c r="D3">
+        <v>8.2788957321396204</v>
+      </c>
+      <c r="E3">
+        <v>-3.0391253329233798</v>
+      </c>
+      <c r="F3">
+        <v>8.0657863204982097E-3</v>
+      </c>
+      <c r="G3">
+        <v>15.4466839078619</v>
+      </c>
+      <c r="H3">
+        <v>-0.82911970347262098</v>
+      </c>
+      <c r="I3">
+        <v>-0.14655961608336199</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3">
+        <v>2.29238137529949E-2</v>
+      </c>
+      <c r="M3">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>-0.91024921280737403</v>
+      </c>
+      <c r="C4">
+        <v>6.1359632998404798</v>
+      </c>
+      <c r="D4">
+        <v>7.0462125126478501</v>
+      </c>
+      <c r="E4">
+        <v>-5.1605507043345504</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.0135616173061101E-5</v>
+      </c>
+      <c r="G4">
+        <v>26.8329592654582</v>
+      </c>
+      <c r="H4">
+        <v>-1.27226896497904</v>
+      </c>
+      <c r="I4">
+        <v>-0.54822946063571099</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>7.1836285936711496E-4</v>
+      </c>
+      <c r="M4">
         <v>440552</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
+        <v>3.1134901812828</v>
+      </c>
+      <c r="C5">
+        <v>8.7611369867087596</v>
+      </c>
+      <c r="D5">
+        <v>5.6476468054259499</v>
+      </c>
+      <c r="E5">
+        <v>5.0088494418732896</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.6606031828411701E-5</v>
+      </c>
+      <c r="G5">
+        <v>28.1893883380089</v>
+      </c>
+      <c r="H5">
+        <v>1.8405899317032599</v>
+      </c>
+      <c r="I5">
+        <v>4.3863904308623596</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5">
+        <v>7.1836285936711496E-4</v>
+      </c>
+      <c r="M5">
         <v>6083</v>
       </c>
-      <c r="C5" t="s">
+      <c r="N5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
+        <v>0.76801463334574405</v>
+      </c>
+      <c r="C6">
+        <v>8.6502855823058002</v>
+      </c>
+      <c r="D6">
+        <v>7.88227094896006</v>
+      </c>
+      <c r="E6">
+        <v>3.43397901004393</v>
+      </c>
+      <c r="F6">
+        <v>2.1401686115515399E-3</v>
+      </c>
+      <c r="G6">
+        <v>24.318468839860099</v>
+      </c>
+      <c r="H6">
+        <v>0.30674025866905003</v>
+      </c>
+      <c r="I6">
+        <v>1.2292890080224399</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6">
+        <v>1.15165687418758E-2</v>
+      </c>
+      <c r="M6">
         <v>597</v>
       </c>
-      <c r="C6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
+        <v>0.65798393533197497</v>
+      </c>
+      <c r="C7">
+        <v>12.3762687731473</v>
+      </c>
+      <c r="D7">
+        <v>11.7182848378153</v>
+      </c>
+      <c r="E7">
+        <v>2.8930348544482398</v>
+      </c>
+      <c r="F7">
+        <v>9.5913326632623992E-3</v>
+      </c>
+      <c r="G7">
+        <v>18.2548444409972</v>
+      </c>
+      <c r="H7">
+        <v>0.180633673159316</v>
+      </c>
+      <c r="I7">
+        <v>1.13533419750463</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <v>2.4663426848389E-2</v>
+      </c>
+      <c r="M7">
         <v>5961</v>
       </c>
-      <c r="C7" t="s">
+      <c r="N7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.50901215084076401</v>
+      </c>
+      <c r="C8">
+        <v>6.3917848333755503</v>
+      </c>
+      <c r="D8">
+        <v>6.9007969842163099</v>
+      </c>
+      <c r="E8">
+        <v>-2.7324133509108202</v>
+      </c>
+      <c r="F8">
+        <v>1.6304472201067399E-2</v>
+      </c>
+      <c r="G8">
+        <v>13.869594187829</v>
+      </c>
+      <c r="H8">
+        <v>-0.908910016122079</v>
+      </c>
+      <c r="I8">
+        <v>-0.10911428555944901</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>3.1466851671272202E-2</v>
+      </c>
+      <c r="M8">
         <v>743</v>
       </c>
-      <c r="C8" t="s">
+      <c r="N8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
+        <v>-0.603678281271813</v>
+      </c>
+      <c r="C9">
+        <v>7.6048044671868196</v>
+      </c>
+      <c r="D9">
+        <v>8.2084827484586302</v>
+      </c>
+      <c r="E9">
+        <v>-2.3718979944557002</v>
+      </c>
+      <c r="F9">
+        <v>2.6411704788417301E-2</v>
+      </c>
+      <c r="G9">
+        <v>23.086139198300899</v>
+      </c>
+      <c r="H9">
+        <v>-1.1300693374799899</v>
+      </c>
+      <c r="I9">
+        <v>-7.7287225063634196E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9">
+        <v>4.9180415812914997E-2</v>
+      </c>
+      <c r="M9">
         <v>124886</v>
       </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
+        <v>0.59774076401308196</v>
+      </c>
+      <c r="C10">
+        <v>14.7901896045223</v>
+      </c>
+      <c r="D10">
+        <v>14.192448840509201</v>
+      </c>
+      <c r="E10">
+        <v>3.38580027606154</v>
+      </c>
+      <c r="F10">
+        <v>4.1868563388680604E-3</v>
+      </c>
+      <c r="G10">
+        <v>14.670316472077999</v>
+      </c>
+      <c r="H10">
+        <v>0.22070950343368101</v>
+      </c>
+      <c r="I10">
+        <v>0.97477202459248302</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10">
+        <v>1.6919087600111099E-2</v>
+      </c>
+      <c r="M10">
         <v>750</v>
       </c>
-      <c r="C10" t="s">
+      <c r="N10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
+        <v>-0.74254462562623003</v>
+      </c>
+      <c r="C11">
+        <v>6.9632780904239704</v>
+      </c>
+      <c r="D11">
+        <v>7.7058227160502</v>
+      </c>
+      <c r="E11">
+        <v>-3.2366446747150199</v>
+      </c>
+      <c r="F11">
+        <v>7.5351238306570201E-3</v>
+      </c>
+      <c r="G11">
+        <v>11.4605916498972</v>
+      </c>
+      <c r="H11">
+        <v>-1.24502538099867</v>
+      </c>
+      <c r="I11">
+        <v>-0.240063870253787</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11">
+        <v>2.2605371491971098E-2</v>
+      </c>
+      <c r="M11">
         <v>785</v>
       </c>
-      <c r="C11" t="s">
+      <c r="N11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12">
+        <v>1.27594837089652</v>
+      </c>
+      <c r="C12">
+        <v>9.8923337119441506</v>
+      </c>
+      <c r="D12">
+        <v>8.6163853410476303</v>
+      </c>
+      <c r="E12">
+        <v>3.0935264662273498</v>
+      </c>
+      <c r="F12">
+        <v>6.6367604871158297E-3</v>
+      </c>
+      <c r="G12">
+        <v>16.883244928620101</v>
+      </c>
+      <c r="H12">
+        <v>0.40528034525031797</v>
+      </c>
+      <c r="I12">
+        <v>2.1466163965427199</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12">
+        <v>2.1081474488485599E-2</v>
+      </c>
+      <c r="M12">
         <v>6021</v>
       </c>
-      <c r="C12" t="s">
+      <c r="N12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13">
+        <v>0.81268898956872704</v>
+      </c>
+      <c r="C13">
+        <v>13.1609623070506</v>
+      </c>
+      <c r="D13">
+        <v>12.348273317481899</v>
+      </c>
+      <c r="E13">
+        <v>3.4956395313630901</v>
+      </c>
+      <c r="F13">
+        <v>2.3459677066783998E-3</v>
+      </c>
+      <c r="G13">
+        <v>19.501503994760501</v>
+      </c>
+      <c r="H13">
+        <v>0.32693472251079703</v>
+      </c>
+      <c r="I13">
+        <v>1.2984432566266599</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13">
+        <v>1.15165687418758E-2</v>
+      </c>
+      <c r="M13">
         <v>6306</v>
       </c>
-      <c r="C13" t="s">
+      <c r="N13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14">
+        <v>-0.92561197654527705</v>
+      </c>
+      <c r="C14">
+        <v>5.0072816121162402</v>
+      </c>
+      <c r="D14">
+        <v>5.9328935886615097</v>
+      </c>
+      <c r="E14">
+        <v>-3.17831656027619</v>
+      </c>
+      <c r="F14">
+        <v>4.8906308751720598E-3</v>
+      </c>
+      <c r="G14">
+        <v>19.2472547769861</v>
+      </c>
+      <c r="H14">
+        <v>-1.5346277948288001</v>
+      </c>
+      <c r="I14">
+        <v>-0.31659615826175103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14">
+        <v>1.6919087600111099E-2</v>
+      </c>
+      <c r="M14">
         <v>10729</v>
       </c>
-      <c r="C14" t="s">
+      <c r="N14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15">
+        <v>0.75962152080852796</v>
+      </c>
+      <c r="C15">
+        <v>13.581016803050501</v>
+      </c>
+      <c r="D15">
+        <v>12.821395282241999</v>
+      </c>
+      <c r="E15">
+        <v>3.9123406325859</v>
+      </c>
+      <c r="F15">
+        <v>8.7163486716630896E-4</v>
+      </c>
+      <c r="G15">
+        <v>19.880142638426499</v>
+      </c>
+      <c r="H15">
+        <v>0.354453482495796</v>
+      </c>
+      <c r="I15">
+        <v>1.16478955912126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15">
+        <v>6.7240404038543802E-3</v>
+      </c>
+      <c r="M15">
         <v>6106</v>
       </c>
-      <c r="C15" t="s">
+      <c r="N15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16">
+        <v>-1.6399443604981201</v>
+      </c>
+      <c r="C16">
+        <v>8.5570929611488502</v>
+      </c>
+      <c r="D16">
+        <v>10.197037321647</v>
+      </c>
+      <c r="E16">
+        <v>-4.1195404886599301</v>
+      </c>
+      <c r="F16">
+        <v>5.9333386257328302E-4</v>
+      </c>
+      <c r="G16">
+        <v>18.819073130308499</v>
+      </c>
+      <c r="H16">
+        <v>-2.4736970261832001</v>
+      </c>
+      <c r="I16">
+        <v>-0.80619169481303599</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16">
+        <v>6.40800571579145E-3</v>
+      </c>
+      <c r="M16">
         <v>525</v>
       </c>
-      <c r="C16" t="s">
+      <c r="N16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17">
+        <v>1.0598231092360999</v>
+      </c>
+      <c r="C17">
+        <v>12.144986655012501</v>
+      </c>
+      <c r="D17">
+        <v>11.0851635457764</v>
+      </c>
+      <c r="E17">
+        <v>4.2190817007548196</v>
+      </c>
+      <c r="F17">
+        <v>1.0092176837310899E-3</v>
+      </c>
+      <c r="G17">
+        <v>12.9638575131314</v>
+      </c>
+      <c r="H17">
+        <v>0.51698989580334698</v>
+      </c>
+      <c r="I17">
+        <v>1.6026563226688499</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17">
+        <v>6.8122193651848802E-3</v>
+      </c>
+      <c r="M17">
         <v>13130</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18">
+        <v>0.83523457941193702</v>
+      </c>
+      <c r="C18">
+        <v>12.985321414456401</v>
+      </c>
+      <c r="D18">
+        <v>12.150086835044499</v>
+      </c>
+      <c r="E18">
+        <v>3.8895679636026301</v>
+      </c>
+      <c r="F18">
+        <v>5.9061710662114105E-4</v>
+      </c>
+      <c r="G18">
+        <v>27.0581609833181</v>
+      </c>
+      <c r="H18">
+        <v>0.39467473641394402</v>
+      </c>
+      <c r="I18">
+        <v>1.27579442240993</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18">
+        <v>6.40800571579145E-3</v>
+      </c>
+      <c r="M18">
         <v>6137</v>
       </c>
-      <c r="C18" t="s">
+      <c r="N18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
+        <v>-2.3525602578802398</v>
+      </c>
+      <c r="C19">
+        <v>11.7459648299875</v>
+      </c>
+      <c r="D19">
+        <v>14.098525087867699</v>
+      </c>
+      <c r="E19">
+        <v>-6.1324549226175797</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6.9391287889016906E-5</v>
+      </c>
+      <c r="G19">
+        <v>11.162246905688599</v>
+      </c>
+      <c r="H19">
+        <v>-3.1954172369189902</v>
+      </c>
+      <c r="I19">
+        <v>-1.5097032788414999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19">
+        <v>1.2490431820023E-3</v>
+      </c>
+      <c r="M19">
         <v>892</v>
       </c>
-      <c r="C19" t="s">
+      <c r="N19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
+        <v>1.3302729311964501</v>
+      </c>
+      <c r="C20">
+        <v>10.537165979628</v>
+      </c>
+      <c r="D20">
+        <v>9.2068930484315601</v>
+      </c>
+      <c r="E20">
+        <v>2.7563690481787</v>
+      </c>
+      <c r="F20">
+        <v>1.1417856171735701E-2</v>
+      </c>
+      <c r="G20">
+        <v>22.351709477487699</v>
+      </c>
+      <c r="H20">
+        <v>0.33029709037097499</v>
+      </c>
+      <c r="I20">
+        <v>2.33024877202193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20">
+        <v>2.8025646966987599E-2</v>
+      </c>
+      <c r="M20">
         <v>1001</v>
       </c>
-      <c r="C20" t="s">
+      <c r="N20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21">
+        <v>0.596622400464347</v>
+      </c>
+      <c r="C21">
+        <v>8.1546443850364092</v>
+      </c>
+      <c r="D21">
+        <v>7.5580219845720604</v>
+      </c>
+      <c r="E21">
+        <v>2.6664108285220398</v>
+      </c>
+      <c r="F21">
+        <v>1.5726992776450999E-2</v>
+      </c>
+      <c r="G21">
+        <v>18.0121891762339</v>
+      </c>
+      <c r="H21">
+        <v>0.12655367025390199</v>
+      </c>
+      <c r="I21">
+        <v>1.0666911306747899</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21">
+        <v>3.1466851671272202E-2</v>
+      </c>
+      <c r="M21">
         <v>1015</v>
       </c>
-      <c r="C21" t="s">
+      <c r="N21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22">
+        <v>-0.746729165958119</v>
+      </c>
+      <c r="C22">
+        <v>11.194311737251899</v>
+      </c>
+      <c r="D22">
+        <v>11.9410409032101</v>
+      </c>
+      <c r="E22">
+        <v>-2.74144325949303</v>
+      </c>
+      <c r="F22">
+        <v>1.4724451237757801E-2</v>
+      </c>
+      <c r="G22">
+        <v>15.621506030936899</v>
+      </c>
+      <c r="H22">
+        <v>-1.3252995988093299</v>
+      </c>
+      <c r="I22">
+        <v>-0.16815873310690399</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22">
+        <v>3.1466851671272202E-2</v>
+      </c>
+      <c r="M22">
         <v>1017</v>
       </c>
-      <c r="C22" t="s">
+      <c r="N22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23">
+        <v>1.3254777599518299</v>
+      </c>
+      <c r="C23">
+        <v>14.8380750595115</v>
+      </c>
+      <c r="D23">
+        <v>13.512597299559699</v>
+      </c>
+      <c r="E23">
+        <v>3.5115802195905301</v>
+      </c>
+      <c r="F23">
+        <v>5.0130629926255204E-3</v>
+      </c>
+      <c r="G23">
+        <v>10.7872010526865</v>
+      </c>
+      <c r="H23">
+        <v>0.49269205604382499</v>
+      </c>
+      <c r="I23">
+        <v>2.1582634638598401</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23">
+        <v>1.6919087600111099E-2</v>
+      </c>
+      <c r="M23">
         <v>145742</v>
       </c>
-      <c r="C23" t="s">
+      <c r="N23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24">
+        <v>-1.37831553015729</v>
+      </c>
+      <c r="C24">
+        <v>9.4030959291419407</v>
+      </c>
+      <c r="D24">
+        <v>10.7814114592992</v>
+      </c>
+      <c r="E24">
+        <v>-3.77704115461811</v>
+      </c>
+      <c r="F24">
+        <v>2.78554960102712E-3</v>
+      </c>
+      <c r="G24">
+        <v>11.622449227975901</v>
+      </c>
+      <c r="H24">
+        <v>-2.1762806230060998</v>
+      </c>
+      <c r="I24">
+        <v>-0.58035043730847002</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24">
+        <v>1.2534973204622E-2</v>
+      </c>
+      <c r="M24">
         <v>1045</v>
       </c>
-      <c r="C24" t="s">
+      <c r="N24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
+        <v>-0.76971471946428105</v>
+      </c>
+      <c r="C25">
+        <v>6.6249784311361601</v>
+      </c>
+      <c r="D25">
+        <v>7.3946931506004399</v>
+      </c>
+      <c r="E25">
+        <v>-2.9492250050451698</v>
+      </c>
+      <c r="F25">
+        <v>1.2818699841698099E-2</v>
+      </c>
+      <c r="G25">
+        <v>11.359409579639999</v>
+      </c>
+      <c r="H25">
+        <v>-1.3419375223119301</v>
+      </c>
+      <c r="I25">
+        <v>-0.19749191661662999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25">
+        <v>3.0096077889204199E-2</v>
+      </c>
+      <c r="M25">
         <v>77982</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26">
+        <v>-0.74070053549733195</v>
+      </c>
+      <c r="C26">
+        <v>6.7925061528224298</v>
+      </c>
+      <c r="D26">
+        <v>7.5332066883197601</v>
+      </c>
+      <c r="E26">
+        <v>-3.0062226135163899</v>
+      </c>
+      <c r="F26">
+        <v>9.5128294131669403E-3</v>
+      </c>
+      <c r="G26">
+        <v>13.8757343820399</v>
+      </c>
+      <c r="H26">
+        <v>-1.2695969751821199</v>
+      </c>
+      <c r="I26">
+        <v>-0.211804095812545</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26">
+        <v>2.4663426848389E-2</v>
+      </c>
+      <c r="M26">
         <v>338</v>
       </c>
-      <c r="C26" t="s">
+      <c r="N26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27">
+        <v>-0.56220869369778903</v>
+      </c>
+      <c r="C27">
+        <v>8.4399762150298603</v>
+      </c>
+      <c r="D27">
+        <v>9.0021849087276493</v>
+      </c>
+      <c r="E27">
+        <v>-3.1353213807131</v>
+      </c>
+      <c r="F27">
+        <v>4.4425723140558097E-3</v>
+      </c>
+      <c r="G27">
+        <v>24.331984048755501</v>
+      </c>
+      <c r="H27">
+        <v>-0.93202867529812194</v>
+      </c>
+      <c r="I27">
+        <v>-0.192388712097456</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27">
+        <v>1.6919087600111099E-2</v>
+      </c>
+      <c r="M27">
         <v>22416364</v>
       </c>
-      <c r="C27" t="s">
+      <c r="N27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28">
+        <v>0.74487036495534098</v>
+      </c>
+      <c r="C28">
+        <v>11.2618854500124</v>
+      </c>
+      <c r="D28">
+        <v>10.517015085057</v>
+      </c>
+      <c r="E28">
+        <v>4.1167634890673703</v>
+      </c>
+      <c r="F28">
+        <v>7.5877069654416E-4</v>
+      </c>
+      <c r="G28">
+        <v>16.534541405325601</v>
+      </c>
+      <c r="H28">
+        <v>0.36230870016326799</v>
+      </c>
+      <c r="I28">
+        <v>1.1274320297474101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28">
+        <v>6.7240404038543802E-3</v>
+      </c>
+      <c r="M28">
         <v>6288</v>
       </c>
-      <c r="C28" t="s">
+      <c r="N28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29">
+        <v>1.4424123056034599</v>
+      </c>
+      <c r="C29">
+        <v>12.0572357627243</v>
+      </c>
+      <c r="D29">
+        <v>10.614823457120901</v>
+      </c>
+      <c r="E29">
+        <v>2.6760689620948601</v>
+      </c>
+      <c r="F29">
+        <v>1.6316145311030001E-2</v>
+      </c>
+      <c r="G29">
+        <v>16.388094100613198</v>
+      </c>
+      <c r="H29">
+        <v>0.30196977417406401</v>
+      </c>
+      <c r="I29">
+        <v>2.5828548370328601</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29">
+        <v>3.1466851671272202E-2</v>
+      </c>
+      <c r="M29">
         <v>6305</v>
       </c>
-      <c r="C29" t="s">
+      <c r="N29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30">
+        <v>0.92384117391180398</v>
+      </c>
+      <c r="C30">
+        <v>12.923640451474901</v>
+      </c>
+      <c r="D30">
+        <v>11.999799277563101</v>
+      </c>
+      <c r="E30">
+        <v>3.9581444960895502</v>
+      </c>
+      <c r="F30">
+        <v>1.3230428918778001E-3</v>
+      </c>
+      <c r="G30">
+        <v>14.6103693773885</v>
+      </c>
+      <c r="H30">
+        <v>0.42519731892399898</v>
+      </c>
+      <c r="I30">
+        <v>1.42248502889961</v>
+      </c>
+      <c r="J30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30">
+        <v>7.9382573512668097E-3</v>
+      </c>
+      <c r="M30">
         <v>6287</v>
       </c>
-      <c r="C30" t="s">
+      <c r="N30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1285,345 +2360,1401 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F54104-6240-CC4E-A0BB-18EB0C2B8C04}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2">
+        <v>1.0933554526453699</v>
+      </c>
+      <c r="C2">
+        <v>11.7080360112252</v>
+      </c>
+      <c r="D2">
+        <v>10.614680558579799</v>
+      </c>
+      <c r="E2">
+        <v>3.67857210964939</v>
+      </c>
+      <c r="F2">
+        <v>8.0259734666386195E-4</v>
+      </c>
+      <c r="G2">
+        <v>34.100653033108301</v>
+      </c>
+      <c r="H2">
+        <v>0.489391740692803</v>
+      </c>
+      <c r="I2">
+        <v>1.69731916459793</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2">
+        <v>3.74545428443136E-3</v>
+      </c>
+      <c r="M2">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
+        <v>0.40226827724836201</v>
+      </c>
+      <c r="C3">
+        <v>8.7994027857643395</v>
+      </c>
+      <c r="D3">
+        <v>8.3971345085159808</v>
+      </c>
+      <c r="E3">
+        <v>2.5195332747357302</v>
+      </c>
+      <c r="F3">
+        <v>1.6431781470547701E-2</v>
+      </c>
+      <c r="G3">
+        <v>35.260667844044796</v>
+      </c>
+      <c r="H3">
+        <v>7.8227205335056393E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.72630934916166801</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3">
+        <v>2.6543646990884701E-2</v>
+      </c>
+      <c r="M3">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
       <c r="B4">
+        <v>0.76760306091463604</v>
+      </c>
+      <c r="C4">
+        <v>9.3535235391715297</v>
+      </c>
+      <c r="D4">
+        <v>8.5859204782568899</v>
+      </c>
+      <c r="E4">
+        <v>3.0132415581133198</v>
+      </c>
+      <c r="F4">
+        <v>4.7154682989948302E-3</v>
+      </c>
+      <c r="G4">
+        <v>35.931314145107599</v>
+      </c>
+      <c r="H4">
+        <v>0.25092543314254701</v>
+      </c>
+      <c r="I4">
+        <v>1.28428068868673</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>1.1649980503399E-2</v>
+      </c>
+      <c r="M4">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
       <c r="B5">
+        <v>0.57591758581256403</v>
+      </c>
+      <c r="C5">
+        <v>8.5625642610363499</v>
+      </c>
+      <c r="D5">
+        <v>7.9866466752237901</v>
+      </c>
+      <c r="E5">
+        <v>2.5463544186419802</v>
+      </c>
+      <c r="F5">
+        <v>1.4959073678414699E-2</v>
+      </c>
+      <c r="G5">
+        <v>38.892895591268797</v>
+      </c>
+      <c r="H5">
+        <v>0.118398460297723</v>
+      </c>
+      <c r="I5">
+        <v>1.0334367113273999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5">
+        <v>2.5850600666539301E-2</v>
+      </c>
+      <c r="M5">
         <v>328</v>
       </c>
-      <c r="C5" t="s">
+      <c r="N5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
+        <v>0.52980459797824098</v>
+      </c>
+      <c r="C6">
+        <v>6.1359632998404798</v>
+      </c>
+      <c r="D6">
+        <v>5.6061587018622401</v>
+      </c>
+      <c r="E6">
+        <v>2.81986483530387</v>
+      </c>
+      <c r="F6">
+        <v>7.5185116706757904E-3</v>
+      </c>
+      <c r="G6">
+        <v>38.932185479464998</v>
+      </c>
+      <c r="H6">
+        <v>0.14975424207773599</v>
+      </c>
+      <c r="I6">
+        <v>0.90985495387874504</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6">
+        <v>1.6619867903599098E-2</v>
+      </c>
+      <c r="M6">
         <v>440552</v>
       </c>
-      <c r="C6" t="s">
+      <c r="N6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
       <c r="B7">
+        <v>0.416617338801133</v>
+      </c>
+      <c r="C7">
+        <v>5.7461018412643501</v>
+      </c>
+      <c r="D7">
+        <v>5.3294845024632203</v>
+      </c>
+      <c r="E7">
+        <v>3.00613066749069</v>
+      </c>
+      <c r="F7">
+        <v>4.6142317063507096E-3</v>
+      </c>
+      <c r="G7">
+        <v>38.9394266317518</v>
+      </c>
+      <c r="H7">
+        <v>0.13628021592153799</v>
+      </c>
+      <c r="I7">
+        <v>0.69695446168072905</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <v>1.1649980503399E-2</v>
+      </c>
+      <c r="M7">
         <v>129630434</v>
       </c>
-      <c r="C7" t="s">
+      <c r="N7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8">
+        <v>-0.76542225594980795</v>
+      </c>
+      <c r="C8">
+        <v>12.2382091982603</v>
+      </c>
+      <c r="D8">
+        <v>13.003631454210099</v>
+      </c>
+      <c r="E8">
+        <v>-5.0693384130641403</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8">
+        <v>34.104917560429598</v>
+      </c>
+      <c r="H8">
+        <v>-1.07223723015759</v>
+      </c>
+      <c r="I8">
+        <v>-0.45860728174202903</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>1.9404628637380099E-4</v>
+      </c>
+      <c r="M8">
         <v>8016</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
       <c r="B9">
+        <v>0.525000852045721</v>
+      </c>
+      <c r="C9">
+        <v>8.5294048566143896</v>
+      </c>
+      <c r="D9">
+        <v>8.0044040045686593</v>
+      </c>
+      <c r="E9">
+        <v>4.8280951767355598</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9">
+        <v>38.964922342211501</v>
+      </c>
+      <c r="H9">
+        <v>0.30504971531311897</v>
+      </c>
+      <c r="I9">
+        <v>0.74495198877832403</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9">
+        <v>2.2628721243763501E-4</v>
+      </c>
+      <c r="M9">
         <v>445675</v>
       </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="B10">
+        <v>0.24948311528952</v>
+      </c>
+      <c r="C10">
+        <v>9.1535319279464993</v>
+      </c>
+      <c r="D10">
+        <v>8.9040488126569795</v>
+      </c>
+      <c r="E10">
+        <v>2.5546363600182298</v>
+      </c>
+      <c r="F10">
+        <v>1.53872623015115E-2</v>
+      </c>
+      <c r="G10">
+        <v>33.268636593892502</v>
+      </c>
+      <c r="H10">
+        <v>5.0855409561535399E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.44811082101750399</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10">
+        <v>2.5850600666539301E-2</v>
+      </c>
+      <c r="M10">
         <v>190</v>
       </c>
-      <c r="C10" t="s">
+      <c r="N10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11">
+        <v>-0.62032516759788903</v>
+      </c>
+      <c r="C11">
+        <v>15.012469202561199</v>
+      </c>
+      <c r="D11">
+        <v>15.6327943701591</v>
+      </c>
+      <c r="E11">
+        <v>-3.60235494068877</v>
+      </c>
+      <c r="F11">
+        <v>1.01295571074064E-3</v>
+      </c>
+      <c r="G11">
+        <v>33.374849861547297</v>
+      </c>
+      <c r="H11">
+        <v>-0.97051908061397096</v>
+      </c>
+      <c r="I11">
+        <v>-0.27013125458180698</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11">
+        <v>3.9393982495315198E-3</v>
+      </c>
+      <c r="M11">
         <v>5950</v>
       </c>
-      <c r="C11" t="s">
+      <c r="N11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="B12">
+        <v>0.76127733758680405</v>
+      </c>
+      <c r="C12">
+        <v>10.4894661297167</v>
+      </c>
+      <c r="D12">
+        <v>9.7281887921299006</v>
+      </c>
+      <c r="E12">
+        <v>2.4755223778911901</v>
+      </c>
+      <c r="F12">
+        <v>1.8085900801816799E-2</v>
+      </c>
+      <c r="G12">
+        <v>36.419441736424702</v>
+      </c>
+      <c r="H12">
+        <v>0.13784333663047099</v>
+      </c>
+      <c r="I12">
+        <v>1.38471133854314</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12">
+        <v>2.7634144966490599E-2</v>
+      </c>
+      <c r="M12">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="N12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13">
+        <v>0.368207560489279</v>
+      </c>
+      <c r="C13">
+        <v>8.2958673329826595</v>
+      </c>
+      <c r="D13">
+        <v>7.9276597724933797</v>
+      </c>
+      <c r="E13">
+        <v>2.39091434173254</v>
+      </c>
+      <c r="F13">
+        <v>2.26225235213568E-2</v>
+      </c>
+      <c r="G13">
+        <v>33.2446002838686</v>
+      </c>
+      <c r="H13">
+        <v>5.4974011786893803E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.68144110919166401</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13">
+        <v>3.16715329298995E-2</v>
+      </c>
+      <c r="M13">
         <v>94154</v>
       </c>
-      <c r="C13" t="s">
+      <c r="N13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
       <c r="B14">
+        <v>0.90709123145535397</v>
+      </c>
+      <c r="C14">
+        <v>8.2848618617612608</v>
+      </c>
+      <c r="D14">
+        <v>7.3777706303059096</v>
+      </c>
+      <c r="E14">
+        <v>3.76303614069512</v>
+      </c>
+      <c r="F14">
+        <v>5.6692262654224797E-4</v>
+      </c>
+      <c r="G14">
+        <v>37.972318125146501</v>
+      </c>
+      <c r="H14">
+        <v>0.41909321896504997</v>
+      </c>
+      <c r="I14">
+        <v>1.3950892439456599</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14">
+        <v>2.9763437893467999E-3</v>
+      </c>
+      <c r="M14">
         <v>239</v>
       </c>
-      <c r="C14" t="s">
+      <c r="N14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>83</v>
       </c>
       <c r="B15">
+        <v>1.12191894461324</v>
+      </c>
+      <c r="C15">
+        <v>10.557389320594901</v>
+      </c>
+      <c r="D15">
+        <v>9.43547037598168</v>
+      </c>
+      <c r="E15">
+        <v>2.6985260578428099</v>
+      </c>
+      <c r="F15">
+        <v>1.2820252454937999E-2</v>
+      </c>
+      <c r="G15">
+        <v>23.0052968988701</v>
+      </c>
+      <c r="H15">
+        <v>0.261880336581928</v>
+      </c>
+      <c r="I15">
+        <v>1.9819575526445601</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15">
+        <v>2.4004068112359701E-2</v>
+      </c>
+      <c r="M15">
         <v>673</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>84</v>
       </c>
       <c r="B16">
+        <v>0.83917053715366796</v>
+      </c>
+      <c r="C16">
+        <v>9.1670518691394491</v>
+      </c>
+      <c r="D16">
+        <v>8.3278813319857807</v>
+      </c>
+      <c r="E16">
+        <v>3.5895255773254302</v>
+      </c>
+      <c r="F16">
+        <v>1.24417847713584E-3</v>
+      </c>
+      <c r="G16">
+        <v>28.0836985517778</v>
+      </c>
+      <c r="H16">
+        <v>0.36035178758610398</v>
+      </c>
+      <c r="I16">
+        <v>1.3179892867212299</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16">
+        <v>4.3546246699754298E-3</v>
+      </c>
+      <c r="M16">
         <v>16048618</v>
       </c>
-      <c r="C16" t="s">
+      <c r="N16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
       <c r="B17">
+        <v>0.73949686254471103</v>
+      </c>
+      <c r="C17">
+        <v>7.7923739852236</v>
+      </c>
+      <c r="D17">
+        <v>7.0528771226788898</v>
+      </c>
+      <c r="E17">
+        <v>2.7037884894767199</v>
+      </c>
+      <c r="F17">
+        <v>1.0283979070816801E-2</v>
+      </c>
+      <c r="G17">
+        <v>37.1147419425915</v>
+      </c>
+      <c r="H17">
+        <v>0.185383021943374</v>
+      </c>
+      <c r="I17">
+        <v>1.29361070314605</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17">
+        <v>2.0567958141633501E-2</v>
+      </c>
+      <c r="M17">
         <v>16639161</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18">
+        <v>0.633500815253493</v>
+      </c>
+      <c r="C18">
+        <v>12.144986655012501</v>
+      </c>
+      <c r="D18">
+        <v>11.511485839759001</v>
+      </c>
+      <c r="E18">
+        <v>3.57676890562816</v>
+      </c>
+      <c r="F18">
+        <v>1.0317471605915899E-3</v>
+      </c>
+      <c r="G18">
+        <v>35.351234528737002</v>
+      </c>
+      <c r="H18">
+        <v>0.27406512208841499</v>
+      </c>
+      <c r="I18">
+        <v>0.99293650841857095</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18">
+        <v>3.9393982495315198E-3</v>
+      </c>
+      <c r="M18">
         <v>13130</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19">
+        <v>0.43595890090124301</v>
+      </c>
+      <c r="C19">
+        <v>10.914052997201001</v>
+      </c>
+      <c r="D19">
+        <v>10.478094096299801</v>
+      </c>
+      <c r="E19">
+        <v>3.1682799965644701</v>
+      </c>
+      <c r="F19">
+        <v>3.00129975276309E-3</v>
+      </c>
+      <c r="G19">
+        <v>38.482171249639698</v>
+      </c>
+      <c r="H19">
+        <v>0.157514554408475</v>
+      </c>
+      <c r="I19">
+        <v>0.71440324739400995</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19">
+        <v>8.4036393077366392E-3</v>
+      </c>
+      <c r="M19">
         <v>158980</v>
       </c>
-      <c r="C19" t="s">
+      <c r="N19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
       <c r="B20">
+        <v>0.39125351137772502</v>
+      </c>
+      <c r="C20">
+        <v>11.4900280150397</v>
+      </c>
+      <c r="D20">
+        <v>11.098774503662</v>
+      </c>
+      <c r="E20">
+        <v>2.3058077991221499</v>
+      </c>
+      <c r="F20">
+        <v>2.6764899880829401E-2</v>
+      </c>
+      <c r="G20">
+        <v>37.396460362574601</v>
+      </c>
+      <c r="H20">
+        <v>4.7568611034770197E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.73493841172067997</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20">
+        <v>3.6262122419188303E-2</v>
+      </c>
+      <c r="M20">
         <v>938</v>
       </c>
-      <c r="C20" t="s">
+      <c r="N20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
       <c r="B21">
+        <v>0.88530779925345604</v>
+      </c>
+      <c r="C21">
+        <v>7.6672652101762502</v>
+      </c>
+      <c r="D21">
+        <v>6.7819574109227903</v>
+      </c>
+      <c r="E21">
+        <v>3.3308525449399</v>
+      </c>
+      <c r="F21">
+        <v>1.90244203480057E-3</v>
+      </c>
+      <c r="G21">
+        <v>38.9816663373838</v>
+      </c>
+      <c r="H21">
+        <v>0.34768839086958198</v>
+      </c>
+      <c r="I21">
+        <v>1.42292720763733</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21">
+        <v>5.7509322631515702E-3</v>
+      </c>
+      <c r="M21">
         <v>230881</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>92</v>
       </c>
       <c r="B22">
+        <v>0.32877456575328201</v>
+      </c>
+      <c r="C22">
+        <v>13.4401067248138</v>
+      </c>
+      <c r="D22">
+        <v>13.111332159060501</v>
+      </c>
+      <c r="E22">
+        <v>2.5997192459990299</v>
+      </c>
+      <c r="F22">
+        <v>1.31450849186732E-2</v>
+      </c>
+      <c r="G22">
+        <v>38.640573897578697</v>
+      </c>
+      <c r="H22">
+        <v>7.2898027437796206E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.58465110406876697</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22">
+        <v>2.4004068112359701E-2</v>
+      </c>
+      <c r="M22">
         <v>1004</v>
       </c>
-      <c r="C22" t="s">
+      <c r="N22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23">
+        <v>0.99587885475273197</v>
+      </c>
+      <c r="C23">
+        <v>8.1546443850364092</v>
+      </c>
+      <c r="D23">
+        <v>7.1587655302836701</v>
+      </c>
+      <c r="E23">
+        <v>5.7901158250743396</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23">
+        <v>38.715702645958501</v>
+      </c>
+      <c r="H23">
+        <v>0.64790167792354503</v>
+      </c>
+      <c r="I23">
+        <v>1.3438560315819199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23">
         <v>1015</v>
       </c>
-      <c r="C23" t="s">
+      <c r="N23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>94</v>
       </c>
       <c r="B24">
+        <v>1.7000028735166799</v>
+      </c>
+      <c r="C24">
+        <v>10.1762358141193</v>
+      </c>
+      <c r="D24">
+        <v>8.4762329406026105</v>
+      </c>
+      <c r="E24">
+        <v>8.0858784935980808</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24">
+        <v>30.894318338955799</v>
+      </c>
+      <c r="H24">
+        <v>1.2711491012785501</v>
+      </c>
+      <c r="I24">
+        <v>2.1288566457548201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24">
         <v>164619</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25">
+        <v>0.68809038076264195</v>
+      </c>
+      <c r="C25">
+        <v>14.8380750595115</v>
+      </c>
+      <c r="D25">
+        <v>14.149984678748901</v>
+      </c>
+      <c r="E25">
+        <v>4.0068523627561499</v>
+      </c>
+      <c r="F25">
+        <v>2.7758215285528801E-4</v>
+      </c>
+      <c r="G25">
+        <v>37.899773367935701</v>
+      </c>
+      <c r="H25">
+        <v>0.34041419829486003</v>
+      </c>
+      <c r="I25">
+        <v>1.03576656323042</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25">
+        <v>1.6654929171317299E-3</v>
+      </c>
+      <c r="M25">
         <v>145742</v>
       </c>
-      <c r="C25" t="s">
+      <c r="N25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
       <c r="B26">
+        <v>0.80656797552308801</v>
+      </c>
+      <c r="C26">
+        <v>8.2478955750561198</v>
+      </c>
+      <c r="D26">
+        <v>7.4413275995330297</v>
+      </c>
+      <c r="E26">
+        <v>2.7845745812189699</v>
+      </c>
+      <c r="F26">
+        <v>8.2272184250606305E-3</v>
+      </c>
+      <c r="G26">
+        <v>38.998651125380903</v>
+      </c>
+      <c r="H26">
+        <v>0.22068331808387401</v>
+      </c>
+      <c r="I26">
+        <v>1.3924526329622999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26">
+        <v>1.72771586926273E-2</v>
+      </c>
+      <c r="M26">
         <v>12473</v>
       </c>
-      <c r="C26" t="s">
+      <c r="N26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>97</v>
       </c>
       <c r="B27">
+        <v>0.78563633444549896</v>
+      </c>
+      <c r="C27">
+        <v>13.0635874422802</v>
+      </c>
+      <c r="D27">
+        <v>12.277951107834699</v>
+      </c>
+      <c r="E27">
+        <v>4.4295349341621497</v>
+      </c>
+      <c r="F27">
+        <v>1.0807771425028101E-4</v>
+      </c>
+      <c r="G27">
+        <v>31.200689328122401</v>
+      </c>
+      <c r="H27">
+        <v>0.42399605686075997</v>
+      </c>
+      <c r="I27">
+        <v>1.14727661203024</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27">
+        <v>7.7170981041987702E-4</v>
+      </c>
+      <c r="M27">
         <v>5951</v>
       </c>
-      <c r="C27" t="s">
+      <c r="N27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28">
+        <v>0.44937745173890098</v>
+      </c>
+      <c r="C28">
+        <v>11.2618854500124</v>
+      </c>
+      <c r="D28">
+        <v>10.8125079982735</v>
+      </c>
+      <c r="E28">
+        <v>3.3280272143140901</v>
+      </c>
+      <c r="F28">
+        <v>1.91697742105052E-3</v>
+      </c>
+      <c r="G28">
+        <v>38.997206508920698</v>
+      </c>
+      <c r="H28">
+        <v>0.17625655622092501</v>
+      </c>
+      <c r="I28">
+        <v>0.72249834725687601</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28">
+        <v>5.7509322631515702E-3</v>
+      </c>
+      <c r="M28">
         <v>6288</v>
       </c>
-      <c r="C28" t="s">
+      <c r="N28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
       <c r="B29">
+        <v>0.454267230818868</v>
+      </c>
+      <c r="C29">
+        <v>8.8830824268052808</v>
+      </c>
+      <c r="D29">
+        <v>8.4288151959864095</v>
+      </c>
+      <c r="E29">
+        <v>2.44500246081902</v>
+      </c>
+      <c r="F29">
+        <v>1.9378039629524699E-2</v>
+      </c>
+      <c r="G29">
+        <v>36.918042966807697</v>
+      </c>
+      <c r="H29">
+        <v>7.7784249158963203E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.83075021247877201</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29">
+        <v>2.8064747049656499E-2</v>
+      </c>
+      <c r="M29">
         <v>1174</v>
       </c>
-      <c r="C29" t="s">
+      <c r="N29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>101</v>
       </c>
       <c r="B30">
+        <v>0.54561858867411095</v>
+      </c>
+      <c r="C30">
+        <v>10.8272005061407</v>
+      </c>
+      <c r="D30">
+        <v>10.2815819174666</v>
+      </c>
+      <c r="E30">
+        <v>2.8281055737366501</v>
+      </c>
+      <c r="F30">
+        <v>7.37455904232416E-3</v>
+      </c>
+      <c r="G30">
+        <v>38.745180326998003</v>
+      </c>
+      <c r="H30">
+        <v>0.15530434819872199</v>
+      </c>
+      <c r="I30">
+        <v>0.93593282914950104</v>
+      </c>
+      <c r="J30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30">
+        <v>1.6619867903599098E-2</v>
+      </c>
+      <c r="M30">
         <v>1176</v>
       </c>
-      <c r="C30" t="s">
+      <c r="N30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
       <c r="B31">
+        <v>0.42438229840020802</v>
+      </c>
+      <c r="C31">
+        <v>8.4097728630303106</v>
+      </c>
+      <c r="D31">
+        <v>7.9853905646300998</v>
+      </c>
+      <c r="E31">
+        <v>2.4686662303781399</v>
+      </c>
+      <c r="F31">
+        <v>1.8422763310993701E-2</v>
+      </c>
+      <c r="G31">
+        <v>36.144452422196302</v>
+      </c>
+      <c r="H31">
+        <v>7.5786055637558303E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.77297854116285802</v>
+      </c>
+      <c r="J31" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31">
+        <v>2.7634144966490599E-2</v>
+      </c>
+      <c r="M31">
         <v>6029</v>
       </c>
-      <c r="C31" t="s">
+      <c r="N31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>105</v>
       </c>
       <c r="B32">
+        <v>0.71709604780945402</v>
+      </c>
+      <c r="C32">
+        <v>6.8348940640439801</v>
+      </c>
+      <c r="D32">
+        <v>6.11779801623452</v>
+      </c>
+      <c r="E32">
+        <v>4.3652492414291402</v>
+      </c>
+      <c r="F32">
+        <v>1.10244258631411E-4</v>
+      </c>
+      <c r="G32">
+        <v>34.401276733858303</v>
+      </c>
+      <c r="H32">
+        <v>0.38339491372462903</v>
+      </c>
+      <c r="I32">
+        <v>1.0507971818942801</v>
+      </c>
+      <c r="J32" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32">
+        <v>7.7170981041987702E-4</v>
+      </c>
+      <c r="M32">
         <v>6912</v>
       </c>
-      <c r="C32" t="s">
+      <c r="N32" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1634,85 +3765,316 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235659CA-084C-EF40-94E2-DC6AB97E8EA3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
       <c r="B2">
+        <v>-0.90239299244303195</v>
+      </c>
+      <c r="C2">
+        <v>9.1655929162999907</v>
+      </c>
+      <c r="D2">
+        <v>10.067985908742999</v>
+      </c>
+      <c r="E2">
+        <v>-4.1990849315654497</v>
+      </c>
+      <c r="F2">
+        <v>3.6022296772844102E-3</v>
+      </c>
+      <c r="G2">
+        <v>7.36971115305262</v>
+      </c>
+      <c r="H2">
+        <v>-1.4054337329401201</v>
+      </c>
+      <c r="I2">
+        <v>-0.39935225194593998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2">
+        <v>3.2364720002226198E-2</v>
+      </c>
+      <c r="M2">
         <v>134508</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
       <c r="B3">
+        <v>-0.78577431275202303</v>
+      </c>
+      <c r="C3">
+        <v>10.202487304104899</v>
+      </c>
+      <c r="D3">
+        <v>10.988261616856899</v>
+      </c>
+      <c r="E3">
+        <v>-4.9087512235671102</v>
+      </c>
+      <c r="F3">
+        <v>6.2251530091939501E-4</v>
+      </c>
+      <c r="G3">
+        <v>9.9589783652405099</v>
+      </c>
+      <c r="H3">
+        <v>-1.1426455869796099</v>
+      </c>
+      <c r="I3">
+        <v>-0.42890303852443901</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3">
+        <v>1.5874140173444601E-2</v>
+      </c>
+      <c r="M3">
         <v>6267</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
       <c r="B4">
+        <v>-0.99665837093522602</v>
+      </c>
+      <c r="C4">
+        <v>8.7713753300771398</v>
+      </c>
+      <c r="D4">
+        <v>9.7680337010123601</v>
+      </c>
+      <c r="E4">
+        <v>-4.5252453583600696</v>
+      </c>
+      <c r="F4">
+        <v>1.9078216718172701E-3</v>
+      </c>
+      <c r="G4">
+        <v>8.0471211692353908</v>
+      </c>
+      <c r="H4">
+        <v>-1.5040248662072</v>
+      </c>
+      <c r="I4">
+        <v>-0.489291875663249</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>2.43247263156702E-2</v>
+      </c>
+      <c r="M4">
         <v>444972</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
       <c r="B5">
+        <v>-1.02213843055822</v>
+      </c>
+      <c r="C5">
+        <v>9.4636608410925191</v>
+      </c>
+      <c r="D5">
+        <v>10.4857992716507</v>
+      </c>
+      <c r="E5">
+        <v>-4.2480297098249302</v>
+      </c>
+      <c r="F5">
+        <v>1.14114803235499E-3</v>
+      </c>
+      <c r="G5">
+        <v>11.9523212750154</v>
+      </c>
+      <c r="H5">
+        <v>-1.5466248820211399</v>
+      </c>
+      <c r="I5">
+        <v>-0.49765197909530701</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5">
+        <v>1.93995165500347E-2</v>
+      </c>
+      <c r="M5">
         <v>10935</v>
       </c>
-      <c r="C5" t="s">
+      <c r="N5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6">
+        <v>-2.61764967645012</v>
+      </c>
+      <c r="C6">
+        <v>9.76498341764324</v>
+      </c>
+      <c r="D6">
+        <v>12.3826330940934</v>
+      </c>
+      <c r="E6">
+        <v>-6.5432787183189296</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6">
+        <v>13.819627150205299</v>
+      </c>
+      <c r="H6">
+        <v>-3.4767270347990902</v>
+      </c>
+      <c r="I6">
+        <v>-1.7585723181011399</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6">
+        <v>7.09302949273104E-4</v>
+      </c>
+      <c r="M6">
         <v>1001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="N6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7">
+        <v>-0.81254560805372</v>
+      </c>
+      <c r="C7">
+        <v>9.3496253317499107</v>
+      </c>
+      <c r="D7">
+        <v>10.1621709398036</v>
+      </c>
+      <c r="E7">
+        <v>-3.5060583913844101</v>
+      </c>
+      <c r="F7">
+        <v>3.8076141179089699E-3</v>
+      </c>
+      <c r="G7">
+        <v>13.1495474052617</v>
+      </c>
+      <c r="H7">
+        <v>-1.31264305152729</v>
+      </c>
+      <c r="I7">
+        <v>-0.31244816458015201</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <v>3.2364720002226198E-2</v>
+      </c>
+      <c r="M7">
         <v>1045</v>
       </c>
-      <c r="C7" t="s">
+      <c r="N7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1723,118 +4085,448 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF82327B-B6F5-B34F-AFC9-11BE325D2F2A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
       <c r="B2">
+        <v>1.3540206440792399</v>
+      </c>
+      <c r="C2">
+        <v>10.067985908742999</v>
+      </c>
+      <c r="D2">
+        <v>8.7139652646637895</v>
+      </c>
+      <c r="E2">
+        <v>3.6079024901718002</v>
+      </c>
+      <c r="F2">
+        <v>6.5796116408860196E-3</v>
+      </c>
+      <c r="G2">
+        <v>8.2328732749727802</v>
+      </c>
+      <c r="H2">
+        <v>0.49283586422082498</v>
+      </c>
+      <c r="I2">
+        <v>2.21520542393765</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2">
+        <v>4.7519417406398999E-2</v>
+      </c>
+      <c r="M2">
         <v>134508</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>108</v>
       </c>
       <c r="B3">
+        <v>0.93549362341713005</v>
+      </c>
+      <c r="C3">
+        <v>10.988261616856899</v>
+      </c>
+      <c r="D3">
+        <v>10.052767993439801</v>
+      </c>
+      <c r="E3">
+        <v>4.0644902367658</v>
+      </c>
+      <c r="F3">
+        <v>2.8180055247748201E-3</v>
+      </c>
+      <c r="G3">
+        <v>9.0074647007713295</v>
+      </c>
+      <c r="H3">
+        <v>0.41489542522897599</v>
+      </c>
+      <c r="I3">
+        <v>1.45609182160529</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3">
+        <v>4.50688256472698E-2</v>
+      </c>
+      <c r="M3">
         <v>6267</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
+        <v>1.3361341609080699</v>
+      </c>
+      <c r="C4">
+        <v>13.0801259258849</v>
+      </c>
+      <c r="D4">
+        <v>11.7439917649768</v>
+      </c>
+      <c r="E4">
+        <v>3.9140065238354298</v>
+      </c>
+      <c r="F4">
+        <v>4.0396056483716801E-3</v>
+      </c>
+      <c r="G4">
+        <v>8.4120043396191608</v>
+      </c>
+      <c r="H4">
+        <v>0.555588730283055</v>
+      </c>
+      <c r="I4">
+        <v>2.11667959153309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>4.50688256472698E-2</v>
+      </c>
+      <c r="M4">
         <v>6306</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
+        <v>1.05426728928196</v>
+      </c>
+      <c r="C5">
+        <v>13.488669117137499</v>
+      </c>
+      <c r="D5">
+        <v>12.4344018278556</v>
+      </c>
+      <c r="E5">
+        <v>4.3408108493141304</v>
+      </c>
+      <c r="F5">
+        <v>2.0895917205939699E-3</v>
+      </c>
+      <c r="G5">
+        <v>8.5959085392668602</v>
+      </c>
+      <c r="H5">
+        <v>0.50088716899293495</v>
+      </c>
+      <c r="I5">
+        <v>1.6076474095709801</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5">
+        <v>4.50688256472698E-2</v>
+      </c>
+      <c r="M5">
         <v>6106</v>
       </c>
-      <c r="C5" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
       <c r="B6">
+        <v>1.30701591448197</v>
+      </c>
+      <c r="C6">
+        <v>13.8903684058044</v>
+      </c>
+      <c r="D6">
+        <v>12.583352491322399</v>
+      </c>
+      <c r="E6">
+        <v>3.7385336194181802</v>
+      </c>
+      <c r="F6">
+        <v>4.16019929051721E-3</v>
+      </c>
+      <c r="G6">
+        <v>9.5725415860068104</v>
+      </c>
+      <c r="H6">
+        <v>0.52330307169619195</v>
+      </c>
+      <c r="I6">
+        <v>2.09072875726776</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6">
+        <v>4.50688256472698E-2</v>
+      </c>
+      <c r="M6">
         <v>5962</v>
       </c>
-      <c r="C6" t="s">
+      <c r="N6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7">
+        <v>1.1945771936241101</v>
+      </c>
+      <c r="C7">
+        <v>12.782255859294199</v>
+      </c>
+      <c r="D7">
+        <v>11.587678665670101</v>
+      </c>
+      <c r="E7">
+        <v>5.6984894710820404</v>
+      </c>
+      <c r="F7">
+        <v>9.5731540711783004E-4</v>
+      </c>
+      <c r="G7">
+        <v>6.4983260223099597</v>
+      </c>
+      <c r="H7">
+        <v>0.69101566844417095</v>
+      </c>
+      <c r="I7">
+        <v>1.69813871880404</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <v>4.50688256472698E-2</v>
+      </c>
+      <c r="M7">
         <v>6137</v>
       </c>
-      <c r="C7" t="s">
+      <c r="N7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>116</v>
       </c>
       <c r="B8">
+        <v>1.6114678189895399</v>
+      </c>
+      <c r="C8">
+        <v>13.921965264552</v>
+      </c>
+      <c r="D8">
+        <v>12.3104974455625</v>
+      </c>
+      <c r="E8">
+        <v>3.8741259133210799</v>
+      </c>
+      <c r="F8">
+        <v>3.8721820035171402E-3</v>
+      </c>
+      <c r="G8">
+        <v>8.8677647944884797</v>
+      </c>
+      <c r="H8">
+        <v>0.66836561817659401</v>
+      </c>
+      <c r="I8">
+        <v>2.5545700198024801</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>4.50688256472698E-2</v>
+      </c>
+      <c r="M8">
         <v>6262</v>
       </c>
-      <c r="C8" t="s">
+      <c r="N8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>118</v>
       </c>
       <c r="B9">
+        <v>1.0930873238277099</v>
+      </c>
+      <c r="C9">
+        <v>12.9802364737407</v>
+      </c>
+      <c r="D9">
+        <v>11.887149149913</v>
+      </c>
+      <c r="E9">
+        <v>3.8159879970042998</v>
+      </c>
+      <c r="F9">
+        <v>5.9061806281590799E-3</v>
+      </c>
+      <c r="G9">
+        <v>7.4114707135207203</v>
+      </c>
+      <c r="H9">
+        <v>0.42329137260328298</v>
+      </c>
+      <c r="I9">
+        <v>1.7628832750521399</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9">
+        <v>4.7519417406398999E-2</v>
+      </c>
+      <c r="M9">
         <v>6140</v>
       </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
       <c r="B10">
+        <v>1.15123043184739</v>
+      </c>
+      <c r="C10">
+        <v>14.1647852171658</v>
+      </c>
+      <c r="D10">
+        <v>13.0135547853184</v>
+      </c>
+      <c r="E10">
+        <v>3.57845124838795</v>
+      </c>
+      <c r="F10">
+        <v>5.8106821964420304E-3</v>
+      </c>
+      <c r="G10">
+        <v>9.1286363113468791</v>
+      </c>
+      <c r="H10">
+        <v>0.42502777471659298</v>
+      </c>
+      <c r="I10">
+        <v>1.8774330889781801</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10">
+        <v>4.7519417406398999E-2</v>
+      </c>
+      <c r="M10">
         <v>6057</v>
       </c>
-      <c r="C10" t="s">
+      <c r="N10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1845,464 +4537,2593 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B712C5A-82DD-6249-B62C-01CBEA459AC5}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2">
+        <v>-0.74324857101720598</v>
+      </c>
+      <c r="C2">
+        <v>8.3971345085159808</v>
+      </c>
+      <c r="D2">
+        <v>9.14038307953318</v>
+      </c>
+      <c r="E2">
+        <v>-3.2524192684367699</v>
+      </c>
+      <c r="F2">
+        <v>6.5986516308169001E-3</v>
+      </c>
+      <c r="G2">
+        <v>12.4957142146027</v>
+      </c>
+      <c r="H2">
+        <v>-1.23897279362569</v>
+      </c>
+      <c r="I2">
+        <v>-0.24752434840872001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2">
+        <v>1.64381748469789E-2</v>
+      </c>
+      <c r="M2">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
+        <v>-0.67712482110428995</v>
+      </c>
+      <c r="C3">
+        <v>7.60177091103533</v>
+      </c>
+      <c r="D3">
+        <v>8.2788957321396204</v>
+      </c>
+      <c r="E3">
+        <v>-4.0663524688860004</v>
+      </c>
+      <c r="F3">
+        <v>7.8496878122468697E-4</v>
+      </c>
+      <c r="G3">
+        <v>17.215203428622701</v>
+      </c>
+      <c r="H3">
+        <v>-1.02811488103086</v>
+      </c>
+      <c r="I3">
+        <v>-0.326134761177717</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3">
+        <v>8.6346565934715593E-3</v>
+      </c>
+      <c r="M3">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>-1.44005381078561</v>
+      </c>
+      <c r="C4">
+        <v>5.6061587018622401</v>
+      </c>
+      <c r="D4">
+        <v>7.0462125126478501</v>
+      </c>
+      <c r="E4">
+        <v>-8.0907392522047097</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.25490566707256E-8</v>
+      </c>
+      <c r="G4">
+        <v>26.465072277853899</v>
+      </c>
+      <c r="H4">
+        <v>-1.8056005529747099</v>
+      </c>
+      <c r="I4">
+        <v>-1.0745070685965099</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="2">
+        <v>8.28237740267888E-7</v>
+      </c>
+      <c r="M4">
         <v>440552</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="B5">
+        <v>0.74284239705615795</v>
+      </c>
+      <c r="C5">
+        <v>13.003631454210099</v>
+      </c>
+      <c r="D5">
+        <v>12.2607890571539</v>
+      </c>
+      <c r="E5">
+        <v>3.1277218986861399</v>
+      </c>
+      <c r="F5">
+        <v>6.50055313525825E-3</v>
+      </c>
+      <c r="G5">
+        <v>15.9770174219389</v>
+      </c>
+      <c r="H5">
+        <v>0.23930029578409701</v>
+      </c>
+      <c r="I5">
+        <v>1.24638449832822</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5">
+        <v>1.64381748469789E-2</v>
+      </c>
+      <c r="M5">
         <v>8016</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
       <c r="B6">
+        <v>-0.56495748484703301</v>
+      </c>
+      <c r="C6">
+        <v>8.0044040045686593</v>
+      </c>
+      <c r="D6">
+        <v>8.5693614894156998</v>
+      </c>
+      <c r="E6">
+        <v>-3.2214336176938101</v>
+      </c>
+      <c r="F6">
+        <v>6.4298187021603103E-3</v>
+      </c>
+      <c r="G6">
+        <v>13.4567802002462</v>
+      </c>
+      <c r="H6">
+        <v>-0.94252800029218398</v>
+      </c>
+      <c r="I6">
+        <v>-0.18738696940188301</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6">
+        <v>1.64381748469789E-2</v>
+      </c>
+      <c r="M6">
         <v>445675</v>
       </c>
-      <c r="C6" t="s">
+      <c r="N6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
       <c r="B7">
+        <v>-0.82273755551313199</v>
+      </c>
+      <c r="C7">
+        <v>8.7601030748768292</v>
+      </c>
+      <c r="D7">
+        <v>9.5828406303899705</v>
+      </c>
+      <c r="E7">
+        <v>-3.05290088491039</v>
+      </c>
+      <c r="F7">
+        <v>6.7247078919459198E-3</v>
+      </c>
+      <c r="G7">
+        <v>18.3954179270578</v>
+      </c>
+      <c r="H7">
+        <v>-1.3880516997743</v>
+      </c>
+      <c r="I7">
+        <v>-0.25742341125196899</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <v>1.64381748469789E-2</v>
+      </c>
+      <c r="M7">
         <v>196</v>
       </c>
-      <c r="C7" t="s">
+      <c r="N7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
       <c r="B8">
+        <v>0.489565099238229</v>
+      </c>
+      <c r="C8">
+        <v>15.6327943701591</v>
+      </c>
+      <c r="D8">
+        <v>15.1432292709209</v>
+      </c>
+      <c r="E8">
+        <v>2.33893711333095</v>
+      </c>
+      <c r="F8">
+        <v>2.8272260394170402E-2</v>
+      </c>
+      <c r="G8">
+        <v>23.292951911405002</v>
+      </c>
+      <c r="H8">
+        <v>5.6873585793912801E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.922256612682545</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>4.6649229650381201E-2</v>
+      </c>
+      <c r="M8">
         <v>5950</v>
       </c>
-      <c r="C8" t="s">
+      <c r="N8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="B9">
+        <v>-0.403419737699932</v>
+      </c>
+      <c r="C9">
+        <v>7.9276597724933797</v>
+      </c>
+      <c r="D9">
+        <v>8.3310795101933106</v>
+      </c>
+      <c r="E9">
+        <v>-3.31691998480495</v>
+      </c>
+      <c r="F9">
+        <v>3.06772872335366E-3</v>
+      </c>
+      <c r="G9">
+        <v>22.499380745097898</v>
+      </c>
+      <c r="H9">
+        <v>-0.65532994197365901</v>
+      </c>
+      <c r="I9">
+        <v>-0.15150953342620499</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9">
+        <v>1.2654380983833801E-2</v>
+      </c>
+      <c r="M9">
         <v>94154</v>
       </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
       <c r="B10">
+        <v>-0.87502157099094102</v>
+      </c>
+      <c r="C10">
+        <v>7.7786471432909199</v>
+      </c>
+      <c r="D10">
+        <v>8.65366871428186</v>
+      </c>
+      <c r="E10">
+        <v>-3.4452727463264901</v>
+      </c>
+      <c r="F10">
+        <v>2.70221505490887E-3</v>
+      </c>
+      <c r="G10">
+        <v>19.059135391000801</v>
+      </c>
+      <c r="H10">
+        <v>-1.4064908627959001</v>
+      </c>
+      <c r="I10">
+        <v>-0.34355227918598003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10">
+        <v>1.1889746241598999E-2</v>
+      </c>
+      <c r="M10">
         <v>10467</v>
       </c>
-      <c r="C10" t="s">
+      <c r="N10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
       <c r="B11">
+        <v>-1.4174421354548099</v>
+      </c>
+      <c r="C11">
+        <v>11.874448608918801</v>
+      </c>
+      <c r="D11">
+        <v>13.291890744373701</v>
+      </c>
+      <c r="E11">
+        <v>-4.3222818782693597</v>
+      </c>
+      <c r="F11">
+        <v>2.39875926036926E-4</v>
+      </c>
+      <c r="G11">
+        <v>23.616330787744801</v>
+      </c>
+      <c r="H11">
+        <v>-2.0948560535527601</v>
+      </c>
+      <c r="I11">
+        <v>-0.74002821735685298</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11">
+        <v>3.9579527796092702E-3</v>
+      </c>
+      <c r="M11">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
+        <v>0.59711962944488794</v>
+      </c>
+      <c r="C12">
+        <v>8.4793905784049493</v>
+      </c>
+      <c r="D12">
+        <v>7.88227094896006</v>
+      </c>
+      <c r="E12">
+        <v>2.5610704190959002</v>
+      </c>
+      <c r="F12">
+        <v>1.67563683067126E-2</v>
+      </c>
+      <c r="G12">
+        <v>25.352577561996799</v>
+      </c>
+      <c r="H12">
+        <v>0.117271723921895</v>
+      </c>
+      <c r="I12">
+        <v>1.07696753496788</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12">
+        <v>3.0720008562306399E-2</v>
+      </c>
+      <c r="M12">
         <v>597</v>
       </c>
-      <c r="C12" t="s">
+      <c r="N12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
       <c r="B13">
+        <v>-0.48810153915365201</v>
+      </c>
+      <c r="C13">
+        <v>9.4751596927373303</v>
+      </c>
+      <c r="D13">
+        <v>9.9632612318909892</v>
+      </c>
+      <c r="E13">
+        <v>-2.44858946170715</v>
+      </c>
+      <c r="F13">
+        <v>3.0746373454567599E-2</v>
+      </c>
+      <c r="G13">
+        <v>11.9509921949921</v>
+      </c>
+      <c r="H13">
+        <v>-0.92262345262997603</v>
+      </c>
+      <c r="I13">
+        <v>-5.3579625677327603E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13">
+        <v>4.83157297143205E-2</v>
+      </c>
+      <c r="M13">
         <v>65533</v>
       </c>
-      <c r="C13" t="s">
+      <c r="N13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
+        <v>-0.71311742288864599</v>
+      </c>
+      <c r="C14">
+        <v>6.1876795613276601</v>
+      </c>
+      <c r="D14">
+        <v>6.9007969842163099</v>
+      </c>
+      <c r="E14">
+        <v>-3.5368354576662702</v>
+      </c>
+      <c r="F14">
+        <v>2.4044362559347702E-3</v>
+      </c>
+      <c r="G14">
+        <v>17.7106821450488</v>
+      </c>
+      <c r="H14">
+        <v>-1.13721415137143</v>
+      </c>
+      <c r="I14">
+        <v>-0.28902069440586098</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14">
+        <v>1.13351994922639E-2</v>
+      </c>
+      <c r="M14">
         <v>743</v>
       </c>
-      <c r="C14" t="s">
+      <c r="N14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
+        <v>0.67253063713765104</v>
+      </c>
+      <c r="C15">
+        <v>14.8649794776469</v>
+      </c>
+      <c r="D15">
+        <v>14.192448840509201</v>
+      </c>
+      <c r="E15">
+        <v>3.7269293530171099</v>
+      </c>
+      <c r="F15">
+        <v>1.8874703533929E-3</v>
+      </c>
+      <c r="G15">
+        <v>15.703795042801699</v>
+      </c>
+      <c r="H15">
+        <v>0.289402919123595</v>
+      </c>
+      <c r="I15">
+        <v>1.05565835515171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15">
+        <v>1.1324822120357399E-2</v>
+      </c>
+      <c r="M15">
         <v>750</v>
       </c>
-      <c r="C15" t="s">
+      <c r="N15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
       <c r="B16">
+        <v>-0.66084267192498702</v>
+      </c>
+      <c r="C16">
+        <v>8.5745885620932807</v>
+      </c>
+      <c r="D16">
+        <v>9.2354312340182698</v>
+      </c>
+      <c r="E16">
+        <v>-2.70748821693036</v>
+      </c>
+      <c r="F16">
+        <v>1.56730344148375E-2</v>
+      </c>
+      <c r="G16">
+        <v>15.7807494080088</v>
+      </c>
+      <c r="H16">
+        <v>-1.17885320846258</v>
+      </c>
+      <c r="I16">
+        <v>-0.142832135387396</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16">
+        <v>2.9554864896550698E-2</v>
+      </c>
+      <c r="M16">
         <v>10465</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
+        <v>-0.96074863422591805</v>
+      </c>
+      <c r="C17">
+        <v>6.7450740818242796</v>
+      </c>
+      <c r="D17">
+        <v>7.7058227160502</v>
+      </c>
+      <c r="E17">
+        <v>-4.0407461489808103</v>
+      </c>
+      <c r="F17">
+        <v>1.39294656193663E-3</v>
+      </c>
+      <c r="G17">
+        <v>13.0364765355248</v>
+      </c>
+      <c r="H17">
+        <v>-1.4742629609672799</v>
+      </c>
+      <c r="I17">
+        <v>-0.44723430748455401</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17">
+        <v>1.1324822120357399E-2</v>
+      </c>
+      <c r="M17">
         <v>785</v>
       </c>
-      <c r="C17" t="s">
+      <c r="N17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
       <c r="B18">
+        <v>-0.87203559399568098</v>
+      </c>
+      <c r="C18">
+        <v>8.5413154781101408</v>
+      </c>
+      <c r="D18">
+        <v>9.4133510721058204</v>
+      </c>
+      <c r="E18">
+        <v>-2.8040535582792998</v>
+      </c>
+      <c r="F18">
+        <v>1.2035655357247399E-2</v>
+      </c>
+      <c r="G18">
+        <v>17.339384138374498</v>
+      </c>
+      <c r="H18">
+        <v>-1.5271924489889299</v>
+      </c>
+      <c r="I18">
+        <v>-0.21687873900243701</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18">
+        <v>2.64784417859442E-2</v>
+      </c>
+      <c r="M18">
         <v>107812</v>
       </c>
-      <c r="C18" t="s">
+      <c r="N18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>132</v>
       </c>
       <c r="B19">
+        <v>-0.52270521889532395</v>
+      </c>
+      <c r="C19">
+        <v>7.3433852959462804</v>
+      </c>
+      <c r="D19">
+        <v>7.8660905148416003</v>
+      </c>
+      <c r="E19">
+        <v>-3.5682753482063898</v>
+      </c>
+      <c r="F19">
+        <v>1.6238815458030501E-3</v>
+      </c>
+      <c r="G19">
+        <v>23.100849749665599</v>
+      </c>
+      <c r="H19">
+        <v>-0.82566305630361103</v>
+      </c>
+      <c r="I19">
+        <v>-0.21974738148703701</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19">
+        <v>1.1324822120357399E-2</v>
+      </c>
+      <c r="M19">
         <v>604</v>
       </c>
-      <c r="C19" t="s">
+      <c r="N19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20">
+        <v>0.81728047415940197</v>
+      </c>
+      <c r="C20">
+        <v>13.165553791641299</v>
+      </c>
+      <c r="D20">
+        <v>12.348273317481899</v>
+      </c>
+      <c r="E20">
+        <v>3.0961298695690598</v>
+      </c>
+      <c r="F20">
+        <v>4.8249543727956904E-3</v>
+      </c>
+      <c r="G20">
+        <v>24.732352505765</v>
+      </c>
+      <c r="H20">
+        <v>0.27332888894309398</v>
+      </c>
+      <c r="I20">
+        <v>1.3612320593757099</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20">
+        <v>1.3845521243674601E-2</v>
+      </c>
+      <c r="M20">
         <v>6306</v>
       </c>
-      <c r="C20" t="s">
+      <c r="N20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21">
+        <v>0.70447759901551898</v>
+      </c>
+      <c r="C21">
+        <v>13.5258728812575</v>
+      </c>
+      <c r="D21">
+        <v>12.821395282241999</v>
+      </c>
+      <c r="E21">
+        <v>3.1950069537660899</v>
+      </c>
+      <c r="F21">
+        <v>3.7633066314242199E-3</v>
+      </c>
+      <c r="G21">
+        <v>24.986632899557801</v>
+      </c>
+      <c r="H21">
+        <v>0.250350846298313</v>
+      </c>
+      <c r="I21">
+        <v>1.15860435173272</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21">
+        <v>1.37544701276571E-2</v>
+      </c>
+      <c r="M21">
         <v>6106</v>
       </c>
-      <c r="C21" t="s">
+      <c r="N21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
       <c r="B22">
+        <v>-0.58099072289241205</v>
+      </c>
+      <c r="C22">
+        <v>8.1257895965429405</v>
+      </c>
+      <c r="D22">
+        <v>8.7067803194353495</v>
+      </c>
+      <c r="E22">
+        <v>-3.9920071148471901</v>
+      </c>
+      <c r="F22">
+        <v>4.2946757081933299E-4</v>
+      </c>
+      <c r="G22">
+        <v>27.992576012259502</v>
+      </c>
+      <c r="H22">
+        <v>-0.879116385425039</v>
+      </c>
+      <c r="I22">
+        <v>-0.28286506035978598</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22">
+        <v>5.6689719348152002E-3</v>
+      </c>
+      <c r="M22">
         <v>2724705</v>
       </c>
-      <c r="C22" t="s">
+      <c r="N22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23">
+        <v>-1.1151370247944301</v>
+      </c>
+      <c r="C23">
+        <v>9.08190029685254</v>
+      </c>
+      <c r="D23">
+        <v>10.197037321647</v>
+      </c>
+      <c r="E23">
+        <v>-2.9069010534136401</v>
+      </c>
+      <c r="F23">
+        <v>9.8737902459861693E-3</v>
+      </c>
+      <c r="G23">
+        <v>16.8746750443335</v>
+      </c>
+      <c r="H23">
+        <v>-1.92495654635032</v>
+      </c>
+      <c r="I23">
+        <v>-0.30531750323853502</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23">
+        <v>2.2471384697761599E-2</v>
+      </c>
+      <c r="M23">
         <v>525</v>
       </c>
-      <c r="C23" t="s">
+      <c r="N23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24">
+        <v>0.78571678685478297</v>
+      </c>
+      <c r="C24">
+        <v>12.9358036218993</v>
+      </c>
+      <c r="D24">
+        <v>12.150086835044499</v>
+      </c>
+      <c r="E24">
+        <v>3.2114935116887802</v>
+      </c>
+      <c r="F24">
+        <v>3.3094225386925101E-3</v>
+      </c>
+      <c r="G24">
+        <v>27.977901099213199</v>
+      </c>
+      <c r="H24">
+        <v>0.284540263689536</v>
+      </c>
+      <c r="I24">
+        <v>1.2868933100200299</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24">
+        <v>1.2848346326688499E-2</v>
+      </c>
+      <c r="M24">
         <v>6137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="N24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25">
+        <v>-2.6159816873133099</v>
+      </c>
+      <c r="C25">
+        <v>11.4825434005544</v>
+      </c>
+      <c r="D25">
+        <v>14.098525087867699</v>
+      </c>
+      <c r="E25">
+        <v>-6.9340052464518802</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.1829452397264598E-5</v>
+      </c>
+      <c r="G25">
+        <v>10.4730295549732</v>
+      </c>
+      <c r="H25">
+        <v>-3.45147017655832</v>
+      </c>
+      <c r="I25">
+        <v>-1.7804931980683001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25">
+        <v>1.0503719291097299E-3</v>
+      </c>
+      <c r="M25">
         <v>892</v>
       </c>
-      <c r="C25" t="s">
+      <c r="N25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>91</v>
       </c>
       <c r="B26">
+        <v>-1.0685223182112</v>
+      </c>
+      <c r="C26">
+        <v>6.7819574109227903</v>
+      </c>
+      <c r="D26">
+        <v>7.8504797291340003</v>
+      </c>
+      <c r="E26">
+        <v>-2.6050933239403902</v>
+      </c>
+      <c r="F26">
+        <v>2.0839105390571499E-2</v>
+      </c>
+      <c r="G26">
+        <v>13.927559725404301</v>
+      </c>
+      <c r="H26">
+        <v>-1.9486716815904599</v>
+      </c>
+      <c r="I26">
+        <v>-0.18837295483194699</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26">
+        <v>3.6194235678360998E-2</v>
+      </c>
+      <c r="M26">
         <v>230881</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>118</v>
       </c>
       <c r="B27">
+        <v>0.65773078555253905</v>
+      </c>
+      <c r="C27">
+        <v>13.2827972421093</v>
+      </c>
+      <c r="D27">
+        <v>12.6250664565567</v>
+      </c>
+      <c r="E27">
+        <v>2.9104680373562699</v>
+      </c>
+      <c r="F27">
+        <v>7.0017682464977703E-3</v>
+      </c>
+      <c r="G27">
+        <v>27.998230543176501</v>
+      </c>
+      <c r="H27">
+        <v>0.19481408031044201</v>
+      </c>
+      <c r="I27">
+        <v>1.12064749079464</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27">
+        <v>1.6504168009601899E-2</v>
+      </c>
+      <c r="M27">
         <v>6140</v>
       </c>
-      <c r="C27" t="s">
+      <c r="N27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>136</v>
       </c>
       <c r="B28">
+        <v>-0.77801577157604296</v>
+      </c>
+      <c r="C28">
+        <v>6.1416677515427596</v>
+      </c>
+      <c r="D28">
+        <v>6.9196835231188096</v>
+      </c>
+      <c r="E28">
+        <v>-3.3281669302689698</v>
+      </c>
+      <c r="F28">
+        <v>4.1689674195838199E-3</v>
+      </c>
+      <c r="G28">
+        <v>16.306068085701401</v>
+      </c>
+      <c r="H28">
+        <v>-1.27282487235579</v>
+      </c>
+      <c r="I28">
+        <v>-0.28320667079629203</v>
+      </c>
+      <c r="J28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28">
+        <v>1.37575924846266E-2</v>
+      </c>
+      <c r="M28">
         <v>4449629</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29">
+        <v>-1.1541839710747099</v>
+      </c>
+      <c r="C29">
+        <v>10.786856932135301</v>
+      </c>
+      <c r="D29">
+        <v>11.9410409032101</v>
+      </c>
+      <c r="E29">
+        <v>-3.5616547644631402</v>
+      </c>
+      <c r="F29">
+        <v>1.6074647751603401E-3</v>
+      </c>
+      <c r="G29">
+        <v>23.6491334951684</v>
+      </c>
+      <c r="H29">
+        <v>-1.8235330364270199</v>
+      </c>
+      <c r="I29">
+        <v>-0.48483490572240001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29">
+        <v>1.1324822120357399E-2</v>
+      </c>
+      <c r="M29">
         <v>1017</v>
       </c>
-      <c r="C29" t="s">
+      <c r="N29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
       <c r="B30">
+        <v>-1.1934637751330099</v>
+      </c>
+      <c r="C30">
+        <v>8.4762329406026105</v>
+      </c>
+      <c r="D30">
+        <v>9.6696967157356202</v>
+      </c>
+      <c r="E30">
+        <v>-2.8731762770163298</v>
+      </c>
+      <c r="F30">
+        <v>1.2747422490859601E-2</v>
+      </c>
+      <c r="G30">
+        <v>13.3803327159803</v>
+      </c>
+      <c r="H30">
+        <v>-2.0882545202852301</v>
+      </c>
+      <c r="I30">
+        <v>-0.29867302998079498</v>
+      </c>
+      <c r="J30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30">
+        <v>2.71396736902173E-2</v>
+      </c>
+      <c r="M30">
         <v>164619</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31">
+        <v>-1.43178612754932</v>
+      </c>
+      <c r="C31">
+        <v>9.3496253317499107</v>
+      </c>
+      <c r="D31">
+        <v>10.7814114592992</v>
+      </c>
+      <c r="E31">
+        <v>-3.8353100213039499</v>
+      </c>
+      <c r="F31">
+        <v>2.17339549609466E-3</v>
+      </c>
+      <c r="G31">
+        <v>12.6180310334874</v>
+      </c>
+      <c r="H31">
+        <v>-2.2407771206614102</v>
+      </c>
+      <c r="I31">
+        <v>-0.62279513443722601</v>
+      </c>
+      <c r="J31" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31">
+        <v>1.13351994922639E-2</v>
+      </c>
+      <c r="M31">
         <v>1045</v>
       </c>
-      <c r="C31" t="s">
+      <c r="N31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>137</v>
       </c>
       <c r="B32">
+        <v>-0.80360477393122798</v>
+      </c>
+      <c r="C32">
+        <v>11.926363330064399</v>
+      </c>
+      <c r="D32">
+        <v>12.729968103995599</v>
+      </c>
+      <c r="E32">
+        <v>-2.8105112106324199</v>
+      </c>
+      <c r="F32">
+        <v>1.3733203868477499E-2</v>
+      </c>
+      <c r="G32">
+        <v>14.206571241712799</v>
+      </c>
+      <c r="H32">
+        <v>-1.41602453552476</v>
+      </c>
+      <c r="I32">
+        <v>-0.19118501233769999</v>
+      </c>
+      <c r="J32" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32">
+        <v>2.83247329787348E-2</v>
+      </c>
+      <c r="M32">
         <v>1023</v>
       </c>
-      <c r="C32" t="s">
+      <c r="N32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
       <c r="B33">
+        <v>-1.03471519913453</v>
+      </c>
+      <c r="C33">
+        <v>6.3599779514658996</v>
+      </c>
+      <c r="D33">
+        <v>7.3946931506004399</v>
+      </c>
+      <c r="E33">
+        <v>-3.68798442903431</v>
+      </c>
+      <c r="F33">
+        <v>2.2731100605651801E-3</v>
+      </c>
+      <c r="G33">
+        <v>14.6443572263054</v>
+      </c>
+      <c r="H33">
+        <v>-1.6339903222929</v>
+      </c>
+      <c r="I33">
+        <v>-0.43544007597616402</v>
+      </c>
+      <c r="J33" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33">
+        <v>1.13351994922639E-2</v>
+      </c>
+      <c r="M33">
         <v>77982</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
       <c r="B34">
+        <v>-0.86829640778001704</v>
+      </c>
+      <c r="C34">
+        <v>12.277951107834699</v>
+      </c>
+      <c r="D34">
+        <v>13.1462475156147</v>
+      </c>
+      <c r="E34">
+        <v>-2.6331805482317301</v>
+      </c>
+      <c r="F34">
+        <v>1.96175385515166E-2</v>
+      </c>
+      <c r="G34">
+        <v>14.050858804591</v>
+      </c>
+      <c r="H34">
+        <v>-1.57530389853094</v>
+      </c>
+      <c r="I34">
+        <v>-0.16128891702909701</v>
+      </c>
+      <c r="J34" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34">
+        <v>3.49934471459485E-2</v>
+      </c>
+      <c r="M34">
         <v>5951</v>
       </c>
-      <c r="C34" t="s">
+      <c r="N34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
       <c r="B35">
+        <v>-0.76938687975080799</v>
+      </c>
+      <c r="C35">
+        <v>8.5671698445143001</v>
+      </c>
+      <c r="D35">
+        <v>9.33655672426511</v>
+      </c>
+      <c r="E35">
+        <v>-3.2782747998555299</v>
+      </c>
+      <c r="F35">
+        <v>3.9596201882649302E-3</v>
+      </c>
+      <c r="G35">
+        <v>18.973578401421101</v>
+      </c>
+      <c r="H35">
+        <v>-1.2606504667426699</v>
+      </c>
+      <c r="I35">
+        <v>-0.27812329275894598</v>
+      </c>
+      <c r="J35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35">
+        <v>1.37544701276571E-2</v>
+      </c>
+      <c r="M35">
         <v>1102</v>
       </c>
-      <c r="C35" t="s">
+      <c r="N35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>141</v>
       </c>
       <c r="B36">
+        <v>-0.82508123282942203</v>
+      </c>
+      <c r="C36">
+        <v>12.3984359480288</v>
+      </c>
+      <c r="D36">
+        <v>13.2235171808583</v>
+      </c>
+      <c r="E36">
+        <v>-2.54925382950996</v>
+      </c>
+      <c r="F36">
+        <v>2.2279358068448701E-2</v>
+      </c>
+      <c r="G36">
+        <v>14.9433557875257</v>
+      </c>
+      <c r="H36">
+        <v>-1.5151654385409501</v>
+      </c>
+      <c r="I36">
+        <v>-0.13499702711789399</v>
+      </c>
+      <c r="J36" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36">
+        <v>3.7703529038913199E-2</v>
+      </c>
+      <c r="M36">
         <v>5281</v>
       </c>
-      <c r="C36" t="s">
+      <c r="N36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37">
+        <v>-0.84057265852615304</v>
+      </c>
+      <c r="C37">
+        <v>8.1616122502015003</v>
+      </c>
+      <c r="D37">
+        <v>9.0021849087276493</v>
+      </c>
+      <c r="E37">
+        <v>-4.8475881316285498</v>
+      </c>
+      <c r="F37" s="2">
+        <v>7.0843344490837006E-5</v>
+      </c>
+      <c r="G37">
+        <v>22.643719344893899</v>
+      </c>
+      <c r="H37">
+        <v>-1.1995908211370501</v>
+      </c>
+      <c r="I37">
+        <v>-0.48155449591525601</v>
+      </c>
+      <c r="J37" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37">
+        <v>1.5585535787984101E-3</v>
+      </c>
+      <c r="M37">
         <v>22416364</v>
       </c>
-      <c r="C37" t="s">
+      <c r="N37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
       <c r="B38">
+        <v>-0.59930735369627697</v>
+      </c>
+      <c r="C38">
+        <v>11.539269443301899</v>
+      </c>
+      <c r="D38">
+        <v>12.138576796998199</v>
+      </c>
+      <c r="E38">
+        <v>-2.4092640377254799</v>
+      </c>
+      <c r="F38">
+        <v>2.9572382614658301E-2</v>
+      </c>
+      <c r="G38">
+        <v>14.712178481752099</v>
+      </c>
+      <c r="H38">
+        <v>-1.1304128667416999</v>
+      </c>
+      <c r="I38">
+        <v>-6.8201840650851206E-2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38">
+        <v>4.7604323233352397E-2</v>
+      </c>
+      <c r="M38">
         <v>5810</v>
       </c>
-      <c r="C38" t="s">
+      <c r="N38" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>145</v>
       </c>
       <c r="B39">
+        <v>-0.77423572052343503</v>
+      </c>
+      <c r="C39">
+        <v>6.8020883933584297</v>
+      </c>
+      <c r="D39">
+        <v>7.57632411388186</v>
+      </c>
+      <c r="E39">
+        <v>-2.7564182167103501</v>
+      </c>
+      <c r="F39">
+        <v>1.54177195198066E-2</v>
+      </c>
+      <c r="G39">
+        <v>14.0385229093534</v>
+      </c>
+      <c r="H39">
+        <v>-1.3765184441452101</v>
+      </c>
+      <c r="I39">
+        <v>-0.17195299690165899</v>
+      </c>
+      <c r="J39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39">
+        <v>2.9554864896550698E-2</v>
+      </c>
+      <c r="M39">
         <v>7618</v>
       </c>
-      <c r="C39" t="s">
+      <c r="N39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40">
+        <v>1.7931708613799799</v>
+      </c>
+      <c r="C40">
+        <v>12.407994318500799</v>
+      </c>
+      <c r="D40">
+        <v>10.614823457120901</v>
+      </c>
+      <c r="E40">
+        <v>3.2458966961034501</v>
+      </c>
+      <c r="F40">
+        <v>4.6012786009767799E-3</v>
+      </c>
+      <c r="G40">
+        <v>17.551203505350902</v>
+      </c>
+      <c r="H40">
+        <v>0.63040152329924204</v>
+      </c>
+      <c r="I40">
+        <v>2.95594019946072</v>
+      </c>
+      <c r="J40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40">
+        <v>1.3845521243674601E-2</v>
+      </c>
+      <c r="M40">
         <v>6305</v>
       </c>
-      <c r="C40" t="s">
+      <c r="N40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>101</v>
       </c>
       <c r="B41">
+        <v>-0.89747310177300799</v>
+      </c>
+      <c r="C41">
+        <v>10.2815819174666</v>
+      </c>
+      <c r="D41">
+        <v>11.1790550192396</v>
+      </c>
+      <c r="E41">
+        <v>-3.3384248231294298</v>
+      </c>
+      <c r="F41">
+        <v>4.6493732448397301E-3</v>
+      </c>
+      <c r="G41">
+        <v>14.565107771169201</v>
+      </c>
+      <c r="H41">
+        <v>-1.4719672065327001</v>
+      </c>
+      <c r="I41">
+        <v>-0.32297899701331501</v>
+      </c>
+      <c r="J41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41">
+        <v>1.3845521243674601E-2</v>
+      </c>
+      <c r="M41">
         <v>1176</v>
       </c>
-      <c r="C41" t="s">
+      <c r="N41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>58</v>
       </c>
       <c r="B42">
+        <v>0.67249887288410204</v>
+      </c>
+      <c r="C42">
+        <v>12.672298150447199</v>
+      </c>
+      <c r="D42">
+        <v>11.999799277563101</v>
+      </c>
+      <c r="E42">
+        <v>2.6871499988111198</v>
+      </c>
+      <c r="F42">
+        <v>1.5052101289602901E-2</v>
+      </c>
+      <c r="G42">
+        <v>18.009362726218001</v>
+      </c>
+      <c r="H42">
+        <v>0.14673177529130901</v>
+      </c>
+      <c r="I42">
+        <v>1.1982659704769001</v>
+      </c>
+      <c r="J42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42">
+        <v>2.9554864896550698E-2</v>
+      </c>
+      <c r="M42">
         <v>6287</v>
       </c>
-      <c r="C42" t="s">
+      <c r="N42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>105</v>
       </c>
       <c r="B43">
+        <v>-0.47827325763865203</v>
+      </c>
+      <c r="C43">
+        <v>6.11779801623452</v>
+      </c>
+      <c r="D43">
+        <v>6.5960712738731804</v>
+      </c>
+      <c r="E43">
+        <v>-3.5518504817188199</v>
+      </c>
+      <c r="F43">
+        <v>1.7236586211703501E-3</v>
+      </c>
+      <c r="G43">
+        <v>22.706817989691899</v>
+      </c>
+      <c r="H43">
+        <v>-0.75702681538635197</v>
+      </c>
+      <c r="I43">
+        <v>-0.199519699890952</v>
+      </c>
+      <c r="J43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" t="s">
+        <v>171</v>
+      </c>
+      <c r="L43">
+        <v>1.1324822120357399E-2</v>
+      </c>
+      <c r="M43">
         <v>6912</v>
       </c>
-      <c r="C43" t="s">
+      <c r="N43" t="s">
         <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850983C9-2AD7-F041-9264-F65BCEDB45D4}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2">
+        <v>-0.82273755551313199</v>
+      </c>
+      <c r="C2">
+        <v>8.7601030748768292</v>
+      </c>
+      <c r="D2">
+        <v>9.5828406303899705</v>
+      </c>
+      <c r="E2">
+        <v>-3.05290088491039</v>
+      </c>
+      <c r="F2">
+        <v>6.7247078919459198E-3</v>
+      </c>
+      <c r="G2">
+        <v>18.3954179270578</v>
+      </c>
+      <c r="H2">
+        <v>-1.3880516997743</v>
+      </c>
+      <c r="I2">
+        <v>-0.25742341125196899</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2">
+        <v>1.64381748469789E-2</v>
+      </c>
+      <c r="M2">
+        <v>196</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3">
+        <v>-0.87502157099094102</v>
+      </c>
+      <c r="C3">
+        <v>7.7786471432909199</v>
+      </c>
+      <c r="D3">
+        <v>8.65366871428186</v>
+      </c>
+      <c r="E3">
+        <v>-3.4452727463264901</v>
+      </c>
+      <c r="F3">
+        <v>2.70221505490887E-3</v>
+      </c>
+      <c r="G3">
+        <v>19.059135391000801</v>
+      </c>
+      <c r="H3">
+        <v>-1.4064908627959001</v>
+      </c>
+      <c r="I3">
+        <v>-0.34355227918598003</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3">
+        <v>1.1889746241598999E-2</v>
+      </c>
+      <c r="M3">
+        <v>10467</v>
+      </c>
+      <c r="N3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>-1.4174421354548099</v>
+      </c>
+      <c r="C4">
+        <v>11.874448608918801</v>
+      </c>
+      <c r="D4">
+        <v>13.291890744373701</v>
+      </c>
+      <c r="E4">
+        <v>-4.3222818782693597</v>
+      </c>
+      <c r="F4">
+        <v>2.39875926036926E-4</v>
+      </c>
+      <c r="G4">
+        <v>23.616330787744801</v>
+      </c>
+      <c r="H4">
+        <v>-2.0948560535527601</v>
+      </c>
+      <c r="I4">
+        <v>-0.74002821735685298</v>
+      </c>
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4">
+        <v>3.9579527796092702E-3</v>
+      </c>
+      <c r="M4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>-0.48810153915365201</v>
+      </c>
+      <c r="C5">
+        <v>9.4751596927373303</v>
+      </c>
+      <c r="D5">
+        <v>9.9632612318909892</v>
+      </c>
+      <c r="E5">
+        <v>-2.44858946170715</v>
+      </c>
+      <c r="F5">
+        <v>3.0746373454567599E-2</v>
+      </c>
+      <c r="G5">
+        <v>11.9509921949921</v>
+      </c>
+      <c r="H5">
+        <v>-0.92262345262997603</v>
+      </c>
+      <c r="I5">
+        <v>-5.3579625677327603E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5">
+        <v>4.83157297143205E-2</v>
+      </c>
+      <c r="M5">
+        <v>65533</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6">
+        <v>-0.66084267192498702</v>
+      </c>
+      <c r="C6">
+        <v>8.5745885620932807</v>
+      </c>
+      <c r="D6">
+        <v>9.2354312340182698</v>
+      </c>
+      <c r="E6">
+        <v>-2.70748821693036</v>
+      </c>
+      <c r="F6">
+        <v>1.56730344148375E-2</v>
+      </c>
+      <c r="G6">
+        <v>15.7807494080088</v>
+      </c>
+      <c r="H6">
+        <v>-1.17885320846258</v>
+      </c>
+      <c r="I6">
+        <v>-0.142832135387396</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6">
+        <v>2.9554864896550698E-2</v>
+      </c>
+      <c r="M6">
+        <v>10465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
+        <v>-0.87203559399568098</v>
+      </c>
+      <c r="C7">
+        <v>8.5413154781101408</v>
+      </c>
+      <c r="D7">
+        <v>9.4133510721058204</v>
+      </c>
+      <c r="E7">
+        <v>-2.8040535582792998</v>
+      </c>
+      <c r="F7">
+        <v>1.2035655357247399E-2</v>
+      </c>
+      <c r="G7">
+        <v>17.339384138374498</v>
+      </c>
+      <c r="H7">
+        <v>-1.5271924489889299</v>
+      </c>
+      <c r="I7">
+        <v>-0.21687873900243701</v>
+      </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7">
+        <v>2.64784417859442E-2</v>
+      </c>
+      <c r="M7">
+        <v>107812</v>
+      </c>
+      <c r="N7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8">
+        <v>-0.52270521889532395</v>
+      </c>
+      <c r="C8">
+        <v>7.3433852959462804</v>
+      </c>
+      <c r="D8">
+        <v>7.8660905148416003</v>
+      </c>
+      <c r="E8">
+        <v>-3.5682753482063898</v>
+      </c>
+      <c r="F8">
+        <v>1.6238815458030501E-3</v>
+      </c>
+      <c r="G8">
+        <v>23.100849749665599</v>
+      </c>
+      <c r="H8">
+        <v>-0.82566305630361103</v>
+      </c>
+      <c r="I8">
+        <v>-0.21974738148703701</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>1.1324822120357399E-2</v>
+      </c>
+      <c r="M8">
+        <v>604</v>
+      </c>
+      <c r="N8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>-0.58099072289241205</v>
+      </c>
+      <c r="C9">
+        <v>8.1257895965429405</v>
+      </c>
+      <c r="D9">
+        <v>8.7067803194353495</v>
+      </c>
+      <c r="E9">
+        <v>-3.9920071148471901</v>
+      </c>
+      <c r="F9">
+        <v>4.2946757081933299E-4</v>
+      </c>
+      <c r="G9">
+        <v>27.992576012259502</v>
+      </c>
+      <c r="H9">
+        <v>-0.879116385425039</v>
+      </c>
+      <c r="I9">
+        <v>-0.28286506035978598</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9">
+        <v>5.6689719348152002E-3</v>
+      </c>
+      <c r="M9">
+        <v>2724705</v>
+      </c>
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10">
+        <v>0.65773078555253905</v>
+      </c>
+      <c r="C10">
+        <v>13.2827972421093</v>
+      </c>
+      <c r="D10">
+        <v>12.6250664565567</v>
+      </c>
+      <c r="E10">
+        <v>2.9104680373562699</v>
+      </c>
+      <c r="F10">
+        <v>7.0017682464977703E-3</v>
+      </c>
+      <c r="G10">
+        <v>27.998230543176501</v>
+      </c>
+      <c r="H10">
+        <v>0.19481408031044201</v>
+      </c>
+      <c r="I10">
+        <v>1.12064749079464</v>
+      </c>
+      <c r="J10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10">
+        <v>1.6504168009601899E-2</v>
+      </c>
+      <c r="M10">
+        <v>6140</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11">
+        <v>-0.77801577157604296</v>
+      </c>
+      <c r="C11">
+        <v>6.1416677515427596</v>
+      </c>
+      <c r="D11">
+        <v>6.9196835231188096</v>
+      </c>
+      <c r="E11">
+        <v>-3.3281669302689698</v>
+      </c>
+      <c r="F11">
+        <v>4.1689674195838199E-3</v>
+      </c>
+      <c r="G11">
+        <v>16.306068085701401</v>
+      </c>
+      <c r="H11">
+        <v>-1.27282487235579</v>
+      </c>
+      <c r="I11">
+        <v>-0.28320667079629203</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11">
+        <v>1.37575924846266E-2</v>
+      </c>
+      <c r="M11">
+        <v>4449629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>-0.80360477393122798</v>
+      </c>
+      <c r="C12">
+        <v>11.926363330064399</v>
+      </c>
+      <c r="D12">
+        <v>12.729968103995599</v>
+      </c>
+      <c r="E12">
+        <v>-2.8105112106324199</v>
+      </c>
+      <c r="F12">
+        <v>1.3733203868477499E-2</v>
+      </c>
+      <c r="G12">
+        <v>14.206571241712799</v>
+      </c>
+      <c r="H12">
+        <v>-1.41602453552476</v>
+      </c>
+      <c r="I12">
+        <v>-0.19118501233769999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12">
+        <v>2.83247329787348E-2</v>
+      </c>
+      <c r="M12">
+        <v>1023</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <v>-0.76938687975080799</v>
+      </c>
+      <c r="C13">
+        <v>8.5671698445143001</v>
+      </c>
+      <c r="D13">
+        <v>9.33655672426511</v>
+      </c>
+      <c r="E13">
+        <v>-3.2782747998555299</v>
+      </c>
+      <c r="F13">
+        <v>3.9596201882649302E-3</v>
+      </c>
+      <c r="G13">
+        <v>18.973578401421101</v>
+      </c>
+      <c r="H13">
+        <v>-1.2606504667426699</v>
+      </c>
+      <c r="I13">
+        <v>-0.27812329275894598</v>
+      </c>
+      <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13">
+        <v>1.37544701276571E-2</v>
+      </c>
+      <c r="M13">
+        <v>1102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14">
+        <v>-0.82508123282942203</v>
+      </c>
+      <c r="C14">
+        <v>12.3984359480288</v>
+      </c>
+      <c r="D14">
+        <v>13.2235171808583</v>
+      </c>
+      <c r="E14">
+        <v>-2.54925382950996</v>
+      </c>
+      <c r="F14">
+        <v>2.2279358068448701E-2</v>
+      </c>
+      <c r="G14">
+        <v>14.9433557875257</v>
+      </c>
+      <c r="H14">
+        <v>-1.5151654385409501</v>
+      </c>
+      <c r="I14">
+        <v>-0.13499702711789399</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14">
+        <v>3.7703529038913199E-2</v>
+      </c>
+      <c r="M14">
+        <v>5281</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15">
+        <v>-0.59930735369627697</v>
+      </c>
+      <c r="C15">
+        <v>11.539269443301899</v>
+      </c>
+      <c r="D15">
+        <v>12.138576796998199</v>
+      </c>
+      <c r="E15">
+        <v>-2.4092640377254799</v>
+      </c>
+      <c r="F15">
+        <v>2.9572382614658301E-2</v>
+      </c>
+      <c r="G15">
+        <v>14.712178481752099</v>
+      </c>
+      <c r="H15">
+        <v>-1.1304128667416999</v>
+      </c>
+      <c r="I15">
+        <v>-6.8201840650851206E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15">
+        <v>4.7604323233352397E-2</v>
+      </c>
+      <c r="M15">
+        <v>5810</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>-0.77423572052343503</v>
+      </c>
+      <c r="C16">
+        <v>6.8020883933584297</v>
+      </c>
+      <c r="D16">
+        <v>7.57632411388186</v>
+      </c>
+      <c r="E16">
+        <v>-2.7564182167103501</v>
+      </c>
+      <c r="F16">
+        <v>1.54177195198066E-2</v>
+      </c>
+      <c r="G16">
+        <v>14.0385229093534</v>
+      </c>
+      <c r="H16">
+        <v>-1.3765184441452101</v>
+      </c>
+      <c r="I16">
+        <v>-0.17195299690165899</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16">
+        <v>2.9554864896550698E-2</v>
+      </c>
+      <c r="M16">
+        <v>7618</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
